--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="9990" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -130,17 +130,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <family val="1"/>
-      </rPr>
-      <t>Non commencée</t>
-    </r>
-  </si>
-  <si>
     <t>Basse</t>
   </si>
   <si>
@@ -153,22 +142,13 @@
     <t>Non commencée</t>
   </si>
   <si>
-    <t>Ne pas recalucer la trajectoire si on est porche de du next step</t>
-  </si>
-  <si>
     <t>Ajouter timestamp aux traces Java et Octave</t>
   </si>
   <si>
-    <t>Distinguer 3 systemes pour tests ( localisation inclus les HSR, control mouvement inclus defauts et obstacles, et calcul et suivi trajectoire</t>
-  </si>
-  <si>
     <t>Élevée</t>
   </si>
   <si>
     <t>Revoir poids TestLocationEchoConsistancy (sous forme gaussienne ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser la moyenne des angles (heading vue robot, delatNO et trigo (X,Y) </t>
   </si>
   <si>
     <t>Enlever les "200" de la carto pour les coins angles</t>
@@ -199,6 +179,82 @@
       </rPr>
       <t xml:space="preserve"> deltaNOMov:187 </t>
     </r>
+  </si>
+  <si>
+    <t>Debug AStarSearch ne trouve pas le chemin entre (370,250) et (55,55)</t>
+  </si>
+  <si>
+    <t>alors que le trajet inverse est ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprendre / debug pourquoi les particules vont toujours plus loin que le robot </t>
+  </si>
+  <si>
+    <t>Ajouter pingFB au simulateur</t>
+  </si>
+  <si>
+    <t>Ajouter  gestion diag robot au simulateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modifier traitements particules quand le robot interromp son deplacement (ex motor diag=0x04 et obstacle)</t>
+  </si>
+  <si>
+    <t>se declenche tres souvent</t>
+  </si>
+  <si>
+    <t>refaire le move particules avec distance inferieure
+utiliser le retCode actionEnd</t>
+  </si>
+  <si>
+    <t>En cours de réalisation</t>
+  </si>
+  <si>
+    <t>Basculer mouvement du robot en angle distance / et passer tous les angles en radians</t>
+  </si>
+  <si>
+    <t>developpement en cours du test de controle trajectoire</t>
+  </si>
+  <si>
+    <t>Ne pas recalculer la trajectoire si on est proche de next step</t>
+  </si>
+  <si>
+    <t>en grande partie du aux ko lors des deplacements (corrige)
+reste à verifier que le pb a complement disparu</t>
+  </si>
+  <si>
+    <t>Fiabiliser robot pbSynchro motor</t>
+  </si>
+  <si>
+    <t>d  abord faire le simulateur fonction pingFB</t>
+  </si>
+  <si>
+    <t>Différé</t>
+  </si>
+  <si>
+    <t>pas prioritaire apres prise en compte des ko move</t>
+  </si>
+  <si>
+    <t>Utiliser la moyenne des angles (heading vue robot, delatNO et trigo (X,Y)  pour "influencer" la localisation</t>
+  </si>
+  <si>
+    <t>a valider en reel</t>
+  </si>
+  <si>
+    <t>supprimer la localisation (x</t>
+  </si>
+  <si>
+    <t>au fil des opportunites</t>
+  </si>
+  <si>
+    <t>Supprimer les Heading negatif / applique mod(x+360,360) / seul rotation peut etre negatif</t>
+  </si>
+  <si>
+    <t>Distinguer 3 systemes pour tests ( localisation "initiale"  via scan360 des HSR, realisation  mouvement physique inclus gestion des defauts et obstacles , et calcul et controle trajectoire (dont ping FB) patant d une position determinee</t>
+  </si>
+  <si>
+    <t>java: créer un retcode specifique pour octave qui fera la simu
+fait une v0 - et v1 reste a valider en reel
+reste a testes java pour ne pas envoyer pingFB vers le robot si simu</t>
   </si>
 </sst>
 </file>
@@ -325,7 +381,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -765,8 +824,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I21">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="En cours de réalisation"/>
+        <filter val="Non commencée"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1029,23 +1095,23 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="83.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -1079,22 +1145,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8">
         <v>42568</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42575</v>
+        <v>42583</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1107,34 +1173,36 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="2">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1147,55 +1215,65 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42577</v>
+      </c>
+      <c r="F8" s="9">
+        <v>42577</v>
+      </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42579</v>
+      </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H9" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1204,17 +1282,19 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9">
         <v>42570</v>
@@ -1230,18 +1310,18 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1251,12 +1331,207 @@
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42579</v>
+      </c>
+      <c r="F15" s="9">
+        <v>42581</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42579</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G12">
+  <conditionalFormatting sqref="G5:G21">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -1271,16 +1546,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G12">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G21">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C12">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C21">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D12">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D21">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F12">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F21">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1307,7 +1582,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G12</xm:sqref>
+          <xm:sqref>G5:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -1326,7 +1601,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H12</xm:sqref>
+          <xm:sqref>H5:H21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="16650" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -184,9 +184,6 @@
     <t>Debug AStarSearch ne trouve pas le chemin entre (370,250) et (55,55)</t>
   </si>
   <si>
-    <t>alors que le trajet inverse est ok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comprendre / debug pourquoi les particules vont toujours plus loin que le robot </t>
   </si>
   <si>
@@ -255,6 +252,69 @@
     <t>java: créer un retcode specifique pour octave qui fera la simu
 fait une v0 - et v1 reste a valider en reel
 reste a testes java pour ne pas envoyer pingFB vers le robot si simu</t>
+  </si>
+  <si>
+    <t>Debuguer restart apres detection  obstacle</t>
+  </si>
+  <si>
+    <t>Debuger timeout Ping FB apres motors status 0x06</t>
+  </si>
+  <si>
+    <t>alors que le trajet inverse est ok
+reecriture complete du astar realisee</t>
+  </si>
+  <si>
+    <t>Debuger test echo consistancy en reel</t>
+  </si>
+  <si>
+    <t>Debuger theoritical heading à 0</t>
+  </si>
+  <si>
+    <t>correction a verifier</t>
+  </si>
+  <si>
+    <t>Verifier coherence de la carto</t>
+  </si>
+  <si>
+    <t>cf 2016/09/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerer dans octave les differents timeout </t>
+  </si>
+  <si>
+    <t>Ajouter timer apres ack java vers robot avant envoi trame suivante</t>
+  </si>
+  <si>
+    <t>pour laisser le temps a arduino de traiter</t>
+  </si>
+  <si>
+    <t>Debuguer envoi successif de echo de java vers robot</t>
+  </si>
+  <si>
+    <t>provisoirement mis en commentaire 
+en effet si obstacle on envoit end move mais le mouvement  reprend ensuite avec un nouveau endmove alors qu'entre temps octave a valider la position</t>
+  </si>
+  <si>
+    <t>valeurs toujours tres faibles ! Non significatives
+re-ecriture du code octave</t>
+  </si>
+  <si>
+    <t>a tester</t>
+  </si>
+  <si>
+    <t>Remonter les data encodeurs en fin de move</t>
+  </si>
+  <si>
+    <t>pour analyse de comportement (anomalies et tunning)</t>
+  </si>
+  <si>
+    <t>Analyser les data encodeurs</t>
+  </si>
+  <si>
+    <t>Ajouter un timer mini a sendUDP entre 2 trames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger NO robot à 0 au demarrage </t>
   </si>
 </sst>
 </file>
@@ -698,7 +758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle"/>
+        <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -773,7 +839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches"/>
+        <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -824,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I33">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1095,10 +1167,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1232,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42583</v>
+        <v>42669</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1173,13 +1245,13 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1191,27 +1263,27 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1242,13 +1314,13 @@
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9">
         <v>42579</v>
@@ -1262,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1342,28 +1414,30 @@
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1375,12 +1449,12 @@
         <v>2</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -1402,43 +1476,43 @@
         <v>1</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9">
         <v>42579</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H16" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1448,12 +1522,12 @@
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -1469,12 +1543,12 @@
         <v>2</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1490,18 +1564,18 @@
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1513,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,9 +1603,259 @@
       </c>
       <c r="I21" s="5"/>
     </row>
+    <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G21">
+  <conditionalFormatting sqref="G5:G33">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -1546,17 +1870,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G21">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G33">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C21">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C33">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D21">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F33">
+      <formula1>F5&gt;=E5</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D33 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F21">
-      <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -1582,7 +1906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G21</xm:sqref>
+          <xm:sqref>G5:G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -1601,7 +1925,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H21</xm:sqref>
+          <xm:sqref>H5:H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1616,6 +1940,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16650" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="17760" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -206,9 +206,6 @@
     <t>En cours de réalisation</t>
   </si>
   <si>
-    <t>Basculer mouvement du robot en angle distance / et passer tous les angles en radians</t>
-  </si>
-  <si>
     <t>developpement en cours du test de controle trajectoire</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>a valider en reel</t>
-  </si>
-  <si>
-    <t>supprimer la localisation (x</t>
   </si>
   <si>
     <t>au fil des opportunites</t>
@@ -291,30 +285,100 @@
     <t>Debuguer envoi successif de echo de java vers robot</t>
   </si>
   <si>
-    <t>provisoirement mis en commentaire 
+    <t>a tester</t>
+  </si>
+  <si>
+    <t>Remonter les data encodeurs en fin de move</t>
+  </si>
+  <si>
+    <t>pour analyse de comportement (anomalies et tunning)</t>
+  </si>
+  <si>
+    <t>Ajouter un timer mini a sendUDP entre 2 trames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger NO robot à 0 au demarrage </t>
+  </si>
+  <si>
+    <t>Remplacer la batterie HS</t>
+  </si>
+  <si>
+    <t>Tester le croisement batterie piles rechargeable</t>
+  </si>
+  <si>
+    <t>Voir possibilité de recuperer la batterie HS pour moteurs</t>
+  </si>
+  <si>
+    <t>Ajouter un regulateur 5V pour servomorteur et echo</t>
+  </si>
+  <si>
+    <t>Remplacer le servo MG996R</t>
+  </si>
+  <si>
+    <t>commande en cours</t>
+  </si>
+  <si>
+    <t>correction arduino en cours - a valider
 en effet si obstacle on envoit end move mais le mouvement  reprend ensuite avec un nouveau endmove alors qu'entre temps octave a valider la position</t>
   </si>
   <si>
+    <t>evolution code octave faite</t>
+  </si>
+  <si>
+    <t>Passer tous les angles en radians dans Octave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifs au fil de l'eau </t>
+  </si>
+  <si>
+    <t>Re-écrire le code Octave test</t>
+  </si>
+  <si>
     <t>valeurs toujours tres faibles ! Non significatives
-re-ecriture du code octave</t>
-  </si>
-  <si>
-    <t>a tester</t>
-  </si>
-  <si>
-    <t>Remonter les data encodeurs en fin de move</t>
-  </si>
-  <si>
-    <t>pour analyse de comportement (anomalies et tunning)</t>
-  </si>
-  <si>
-    <t>Analyser les data encodeurs</t>
-  </si>
-  <si>
-    <t>Ajouter un timer mini a sendUDP entre 2 trames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger NO robot à 0 au demarrage </t>
+re-ecriture du code octave
+reste a valider en reel</t>
+  </si>
+  <si>
+    <t>reste a valider et choisir le meilleur nombre de valeurs a injecter</t>
+  </si>
+  <si>
+    <t>Localisation initiale: Injecter plusieurs valeurs de EchoLocalizeRobotWithRotation dans DetermineRobotLocationWithParticlesGaussian</t>
+  </si>
+  <si>
+    <t>Localisation initiale: developper un code/logique de deplacement / boucler jusqu’à localisation</t>
+  </si>
+  <si>
+    <t>une 1ere version DetermineNextMoveToScan qui cherche les zones echos les + eloignes</t>
+  </si>
+  <si>
+    <t>Stocker et Analyser les data encodeurs remontees en fin de move</t>
+  </si>
+  <si>
+    <t>POC utilisation d'un gyroscope</t>
+  </si>
+  <si>
+    <t>Augmenter le nombres de trous des encodeurs</t>
+  </si>
+  <si>
+    <t>Mettre le roues sous le chassis pour reduire la largeur du robot</t>
+  </si>
+  <si>
+    <t>Remplacer les tendeurs de chaines par un reglage a vis</t>
+  </si>
+  <si>
+    <t>Developper un PID pour controler la vitesse des moteurs</t>
+  </si>
+  <si>
+    <t>Mettre les encodeurs sur la petite roue dentee pour gagner en precision</t>
+  </si>
+  <si>
+    <t>Definir une source externe de localisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex 3 sources lumineuses fixes et différentiables permettraient de localiser en (x,y,h) </t>
+  </si>
+  <si>
+    <t>Basculer mouvement du robot en angle distance VS (X,Y)</t>
   </si>
 </sst>
 </file>
@@ -896,8 +960,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I49" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I49">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1167,10 +1231,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1296,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42669</v>
+        <v>42679</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1245,7 +1309,7 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -1263,12 +1327,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
@@ -1285,7 +1349,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1314,7 +1380,7 @@
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -1334,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1406,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E16" s="9">
         <v>42579</v>
@@ -1498,10 +1564,10 @@
       </c>
       <c r="H16" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1512,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1522,12 +1588,12 @@
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -1548,28 +1614,30 @@
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -1580,14 +1648,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,28 +1673,30 @@
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H22" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -1642,12 +1712,12 @@
         <v>2</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -1658,19 +1728,19 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H24" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
@@ -1688,12 +1758,12 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -1708,9 +1778,9 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1723,9 +1793,9 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -1743,12 +1813,12 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -1767,7 +1837,7 @@
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -1785,12 +1855,12 @@
         <v>2</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -1808,12 +1878,12 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -1830,9 +1900,9 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -1850,12 +1920,337 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G33">
+  <conditionalFormatting sqref="G5:G49">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -1870,16 +2265,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G33">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G49">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C33">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C49">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F33">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F49">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D33 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D49 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1906,7 +2301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G33</xm:sqref>
+          <xm:sqref>G5:G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -1925,7 +2320,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H33</xm:sqref>
+          <xm:sqref>H5:H49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="18870" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -315,9 +315,6 @@
     <t>Remplacer le servo MG996R</t>
   </si>
   <si>
-    <t>commande en cours</t>
-  </si>
-  <si>
     <t>correction arduino en cours - a valider
 en effet si obstacle on envoit end move mais le mouvement  reprend ensuite avec un nouveau endmove alors qu'entre temps octave a valider la position</t>
   </si>
@@ -351,9 +348,6 @@
     <t>une 1ere version DetermineNextMoveToScan qui cherche les zones echos les + eloignes</t>
   </si>
   <si>
-    <t>Stocker et Analyser les data encodeurs remontees en fin de move</t>
-  </si>
-  <si>
     <t>POC utilisation d'un gyroscope</t>
   </si>
   <si>
@@ -379,6 +373,43 @@
   </si>
   <si>
     <t>Basculer mouvement du robot en angle distance VS (X,Y)</t>
+  </si>
+  <si>
+    <t>Reduire voltage alimentation moteur a 11v</t>
+  </si>
+  <si>
+    <t>Pour une plus grande constance de performance quand les piles faiblissent
+a valider</t>
+  </si>
+  <si>
+    <t>pas retenue</t>
+  </si>
+  <si>
+    <t>Externaliser les parametres PWM et encodeurs</t>
+  </si>
+  <si>
+    <t>pour faire tunning sans modif arduino</t>
+  </si>
+  <si>
+    <t>Refaire le scan complet de la cuisine suite a echange de servo moteur et modif echo soft</t>
+  </si>
+  <si>
+    <t>Fiabiliser la mesure des distances par echo</t>
+  </si>
+  <si>
+    <t>remplacement du soft arduino / reste "temps de chauffe" ? Du ping back ??</t>
+  </si>
+  <si>
+    <t>le MG996R consomme beaucoup et qq fois plante le regulateur de tension</t>
+  </si>
+  <si>
+    <t>Supprimer les tremblements du servo moteur</t>
+  </si>
+  <si>
+    <t>pistes identifiees (condensateur sur alim, ecrire le code PWM, limiter l amplitude des angles, selectionner des positions plus stables,,,)</t>
+  </si>
+  <si>
+    <t>Stocker et Analyser les data encodeurs et PWM</t>
   </si>
 </sst>
 </file>
@@ -960,15 +991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I49" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I49">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="En cours de réalisation"/>
-        <filter val="Non commencée"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1231,10 +1255,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N49"/>
+  <dimension ref="B1:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1320,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42679</v>
+        <v>42686</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1330,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1350,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1614,7 +1638,7 @@
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1632,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,7 +1682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1691,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
@@ -1778,7 +1802,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1793,7 +1817,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1858,7 +1882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1907,7 @@
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -1900,7 +1924,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +1947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
@@ -1952,16 +1976,20 @@
         <v>12</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
       <c r="H35" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
@@ -2011,24 +2039,24 @@
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>10</v>
@@ -2045,9 +2073,9 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2062,7 +2090,7 @@
     </row>
     <row r="41" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -2080,12 +2108,12 @@
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2103,12 +2131,12 @@
         <v>2</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -2129,7 +2157,7 @@
     </row>
     <row r="44" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -2148,7 +2176,7 @@
     </row>
     <row r="45" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>10</v>
@@ -2167,7 +2195,7 @@
     </row>
     <row r="46" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>10</v>
@@ -2186,7 +2214,7 @@
     </row>
     <row r="47" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -2205,7 +2233,7 @@
     </row>
     <row r="48" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>10</v>
@@ -2224,7 +2252,7 @@
     </row>
     <row r="49" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>10</v>
@@ -2240,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2248,9 +2276,118 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
+    <row r="50" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H54" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G49">
+  <conditionalFormatting sqref="G5:G54">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -2265,16 +2402,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G49">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G54">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C49">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C54">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F49">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F54">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D49 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D54 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2301,7 +2438,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G49</xm:sqref>
+          <xm:sqref>G5:G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -2320,7 +2457,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H49</xm:sqref>
+          <xm:sqref>H5:H54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="22200" yWindow="0" windowWidth="19200" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="PlanValidationGyroscope" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -410,6 +410,54 @@
   </si>
   <si>
     <t>Stocker et Analyser les data encodeurs et PWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudier la possibilite de recalibrer facilement la boussole </t>
+  </si>
+  <si>
+    <t>pouvoir demonter facilement</t>
+  </si>
+  <si>
+    <t>Revoir architecture capteur si POC gyroscope Ok</t>
+  </si>
+  <si>
+    <t>attendre avoir solution magnetometre definitive</t>
+  </si>
+  <si>
+    <t>ok sur le principe mais la precision ne peut etre validee hors du robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evolutio architecture necessaire afin de valider la precision du gyroscope </t>
+  </si>
+  <si>
+    <t>Definir un plan de validation des datas gyroscope</t>
+  </si>
+  <si>
+    <t>Necessite externalisation de parametres ODR et range</t>
+  </si>
+  <si>
+    <t>ODR</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Rotation demandee</t>
+  </si>
+  <si>
+    <t>Rotation mesuree</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Gyroscope</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Encodeurs</t>
+  </si>
+  <si>
+    <t>Distance demandee</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Magneto</t>
   </si>
 </sst>
 </file>
@@ -481,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +560,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -536,7 +590,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +635,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -991,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I57" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I57"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1255,10 +1315,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N54"/>
+  <dimension ref="B1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1380,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42686</v>
+        <v>42699</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2142,18 +2202,20 @@
         <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I43" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
@@ -2327,7 +2389,7 @@
         <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>13</v>
@@ -2339,7 +2401,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
@@ -2385,9 +2449,72 @@
         <v>95</v>
       </c>
     </row>
+    <row r="55" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H57" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G54">
+  <conditionalFormatting sqref="G5:G57">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -2402,16 +2529,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G54">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G57">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C54">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C57">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F54">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F57">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D54 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D57 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2438,7 +2565,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G54</xm:sqref>
+          <xm:sqref>G5:G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -2457,7 +2584,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H54</xm:sqref>
+          <xm:sqref>H5:H57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2467,16 +2594,586 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:11" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-3</v>
+      </c>
+      <c r="K2">
+        <f>G2-(H2+J2)/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-100</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K12" si="0">G3-(H3+J3)/2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-150</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-150</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>-16</v>
+      </c>
+      <c r="J8">
+        <v>-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-150</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-150</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-150</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f>G13-(H13+J13)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="16">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="H14">
+        <v>-3</v>
+      </c>
+      <c r="K14">
+        <f>G14-(H14+J14)/2</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="16">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-150</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>G15-(H15+J15)/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="16">
+        <v>40</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>G16-(H16+J16)/2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="16">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-150</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>G17-(H17+J17)/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>360</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>325</v>
+      </c>
+      <c r="H18">
+        <v>310</v>
+      </c>
+      <c r="J18">
+        <v>345</v>
+      </c>
+      <c r="K18">
+        <f>G18-(H18+J18)/2</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-360</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>268</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="J19">
+        <v>-345</v>
+      </c>
+      <c r="K19">
+        <f>G19-(H19+J19)/2</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>360</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>324</v>
+      </c>
+      <c r="H20">
+        <v>311</v>
+      </c>
+      <c r="J20">
+        <v>348</v>
+      </c>
+      <c r="K20">
+        <f>G20-(H20+J20)/2</f>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-360</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <v>280</v>
+      </c>
+      <c r="J21">
+        <v>-338</v>
+      </c>
+      <c r="K21">
+        <f>G21-(H21+J21)/2</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>360</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>341</v>
+      </c>
+      <c r="H22">
+        <v>322</v>
+      </c>
+      <c r="J22">
+        <v>338</v>
+      </c>
+      <c r="K22">
+        <f>G22-(H22+J22)/2</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="0" windowWidth="19200" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="23310" yWindow="0" windowWidth="19200" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -459,11 +459,23 @@
   <si>
     <t>Rotation Calculee Magneto</t>
   </si>
+  <si>
+    <t>modig calcul gyro delta 100ms</t>
+  </si>
+  <si>
+    <t>modig calcul gyro delta 200ms</t>
+  </si>
+  <si>
+    <t>modig calcul gyro delta 190ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -590,7 +602,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +652,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1395,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42699</v>
+        <v>42700</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2594,15 +2609,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:K22"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -2936,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="K13">
-        <f>G13-(H13+J13)/2</f>
+        <f t="shared" ref="K13:K22" si="1">G13-(H13+J13)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -2960,7 +2978,7 @@
         <v>-3</v>
       </c>
       <c r="K14">
-        <f>G14-(H14+J14)/2</f>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -2984,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <f>G15-(H15+J15)/2</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3008,11 +3026,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>G16-(H16+J16)/2</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
         <v>40</v>
       </c>
@@ -3032,11 +3050,11 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <f>G17-(H17+J17)/2</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>40</v>
       </c>
@@ -3059,11 +3077,15 @@
         <v>345</v>
       </c>
       <c r="K18">
-        <f>G18-(H18+J18)/2</f>
+        <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="17">
+        <f>H18/G18</f>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>40</v>
       </c>
@@ -3086,11 +3108,15 @@
         <v>-345</v>
       </c>
       <c r="K19">
-        <f>G19-(H19+J19)/2</f>
+        <f t="shared" si="1"/>
         <v>312.5</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="17">
+        <f t="shared" ref="L19:L37" si="2">H19/G19</f>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>40</v>
       </c>
@@ -3113,11 +3139,15 @@
         <v>348</v>
       </c>
       <c r="K20">
-        <f>G20-(H20+J20)/2</f>
+        <f t="shared" si="1"/>
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="17">
+        <f t="shared" si="2"/>
+        <v>0.95987654320987659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>40</v>
       </c>
@@ -3140,11 +3170,15 @@
         <v>-338</v>
       </c>
       <c r="K21">
-        <f>G21-(H21+J21)/2</f>
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="17">
+        <f t="shared" si="2"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>40</v>
       </c>
@@ -3167,8 +3201,318 @@
         <v>338</v>
       </c>
       <c r="K22">
-        <f>G22-(H22+J22)/2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.94428152492668627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>-3</v>
+      </c>
+      <c r="H24">
+        <v>-2</v>
+      </c>
+      <c r="J24">
+        <v>-3</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>-150</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>360</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>326</v>
+      </c>
+      <c r="H26">
+        <v>318</v>
+      </c>
+      <c r="J26">
+        <v>348</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.97546012269938653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-360</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>295</v>
+      </c>
+      <c r="H27">
+        <v>-288</v>
+      </c>
+      <c r="J27">
+        <v>-338</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.97627118644067801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>-360</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>-310</v>
+      </c>
+      <c r="H30">
+        <v>-314</v>
+      </c>
+      <c r="J30">
+        <v>-341</v>
+      </c>
+      <c r="L30" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0129032258064516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>360</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>330</v>
+      </c>
+      <c r="H31">
+        <v>335</v>
+      </c>
+      <c r="J31">
+        <v>356</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0151515151515151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>-3</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-3</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>-150</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>360</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>324</v>
+      </c>
+      <c r="H35">
+        <v>323</v>
+      </c>
+      <c r="J35">
+        <v>338</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99691358024691357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>-360</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>298</v>
+      </c>
+      <c r="H36">
+        <v>294</v>
+      </c>
+      <c r="J36">
+        <v>-338</v>
+      </c>
+      <c r="L36" s="17">
+        <f t="shared" si="2"/>
+        <v>0.98657718120805371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>78</v>
+      </c>
+      <c r="H37">
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <v>83</v>
+      </c>
+      <c r="L37" s="17">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846156</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23310" yWindow="0" windowWidth="19200" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -231,9 +231,6 @@
     <t>Utiliser la moyenne des angles (heading vue robot, delatNO et trigo (X,Y)  pour "influencer" la localisation</t>
   </si>
   <si>
-    <t>a valider en reel</t>
-  </si>
-  <si>
     <t>au fil des opportunites</t>
   </si>
   <si>
@@ -378,95 +375,168 @@
     <t>Reduire voltage alimentation moteur a 11v</t>
   </si>
   <si>
+    <t>pas retenue</t>
+  </si>
+  <si>
+    <t>Externaliser les parametres PWM et encodeurs</t>
+  </si>
+  <si>
+    <t>Refaire le scan complet de la cuisine suite a echange de servo moteur et modif echo soft</t>
+  </si>
+  <si>
+    <t>Fiabiliser la mesure des distances par echo</t>
+  </si>
+  <si>
+    <t>le MG996R consomme beaucoup et qq fois plante le regulateur de tension</t>
+  </si>
+  <si>
+    <t>Supprimer les tremblements du servo moteur</t>
+  </si>
+  <si>
+    <t>pistes identifiees (condensateur sur alim, ecrire le code PWM, limiter l amplitude des angles, selectionner des positions plus stables,,,)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudier la possibilite de recalibrer facilement la boussole </t>
+  </si>
+  <si>
+    <t>pouvoir demonter facilement</t>
+  </si>
+  <si>
+    <t>Revoir architecture capteur si POC gyroscope Ok</t>
+  </si>
+  <si>
+    <t>ok sur le principe mais la precision ne peut etre validee hors du robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evolutio architecture necessaire afin de valider la precision du gyroscope </t>
+  </si>
+  <si>
+    <t>Definir un plan de validation des datas gyroscope</t>
+  </si>
+  <si>
+    <t>Necessite externalisation de parametres ODR et range</t>
+  </si>
+  <si>
+    <t>ODR</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Rotation demandee</t>
+  </si>
+  <si>
+    <t>Rotation mesuree</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Gyroscope</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Encodeurs</t>
+  </si>
+  <si>
+    <t>Distance demandee</t>
+  </si>
+  <si>
+    <t>Rotation Calculee Magneto</t>
+  </si>
+  <si>
+    <t>modig calcul gyro delta 100ms</t>
+  </si>
+  <si>
+    <t>modig calcul gyro delta 200ms</t>
+  </si>
+  <si>
+    <t>modig calcul gyro delta 190ms</t>
+  </si>
+  <si>
+    <t>remplacement du soft arduino / reste "temps de chauffe" ? Du ping back ??
+Modif du boot pour faire des pings</t>
+  </si>
+  <si>
+    <t>pour faire tunning sans modif arduino // les donnees sont en BD</t>
+  </si>
+  <si>
+    <t>Faire analyse statistiques des data PWM et encodeurs</t>
+  </si>
+  <si>
+    <t>necessite la capitalisation de donnees et retour d experience</t>
+  </si>
+  <si>
     <t>Pour une plus grande constance de performance quand les piles faiblissent
-a valider</t>
-  </si>
-  <si>
-    <t>pas retenue</t>
-  </si>
-  <si>
-    <t>Externaliser les parametres PWM et encodeurs</t>
-  </si>
-  <si>
-    <t>pour faire tunning sans modif arduino</t>
-  </si>
-  <si>
-    <t>Refaire le scan complet de la cuisine suite a echange de servo moteur et modif echo soft</t>
-  </si>
-  <si>
-    <t>Fiabiliser la mesure des distances par echo</t>
-  </si>
-  <si>
-    <t>remplacement du soft arduino / reste "temps de chauffe" ? Du ping back ??</t>
-  </si>
-  <si>
-    <t>le MG996R consomme beaucoup et qq fois plante le regulateur de tension</t>
-  </si>
-  <si>
-    <t>Supprimer les tremblements du servo moteur</t>
-  </si>
-  <si>
-    <t>pistes identifiees (condensateur sur alim, ecrire le code PWM, limiter l amplitude des angles, selectionner des positions plus stables,,,)</t>
-  </si>
-  <si>
-    <t>Stocker et Analyser les data encodeurs et PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etudier la possibilite de recalibrer facilement la boussole </t>
-  </si>
-  <si>
-    <t>pouvoir demonter facilement</t>
-  </si>
-  <si>
-    <t>Revoir architecture capteur si POC gyroscope Ok</t>
-  </si>
-  <si>
-    <t>attendre avoir solution magnetometre definitive</t>
-  </si>
-  <si>
-    <t>ok sur le principe mais la precision ne peut etre validee hors du robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evolutio architecture necessaire afin de valider la precision du gyroscope </t>
-  </si>
-  <si>
-    <t>Definir un plan de validation des datas gyroscope</t>
-  </si>
-  <si>
-    <t>Necessite externalisation de parametres ODR et range</t>
-  </si>
-  <si>
-    <t>ODR</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Rotation demandee</t>
-  </si>
-  <si>
-    <t>Rotation mesuree</t>
-  </si>
-  <si>
-    <t>Rotation Calculee Gyroscope</t>
-  </si>
-  <si>
-    <t>Rotation Calculee Encodeurs</t>
-  </si>
-  <si>
-    <t>Distance demandee</t>
-  </si>
-  <si>
-    <t>Rotation Calculee Magneto</t>
-  </si>
-  <si>
-    <t>modig calcul gyro delta 100ms</t>
-  </si>
-  <si>
-    <t>modig calcul gyro delta 200ms</t>
-  </si>
-  <si>
-    <t>modig calcul gyro delta 190ms</t>
+Nette amelioration du comportement en ligne droite 
+Quid de descendre à 10,5V ?</t>
+  </si>
+  <si>
+    <t>a la reflexion pas sur de la pertinence 
+en effet dans le cas ou le robot tourne regulierement le heading de fin n'est la rotation moyenne du mouvement</t>
+  </si>
+  <si>
+    <t>non trop HS</t>
+  </si>
+  <si>
+    <t>Stocker  les data encodeurs et PWM</t>
+  </si>
+  <si>
+    <t>prendre en compte le heading du gyroscope</t>
+  </si>
+  <si>
+    <t>poids a definir en fonction de la qualite apres tests</t>
+  </si>
+  <si>
+    <t>tester le WS16 10DOF MPU6050 HMC5883L BMP180</t>
+  </si>
+  <si>
+    <t>en attente reception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester le QH86 IIC BNO055 AHRS Capteur 9 DOF Absolue Orientation IMU Module BNO-055 </t>
+  </si>
+  <si>
+    <t>modif config gyro (reg2 default)</t>
+  </si>
+  <si>
+    <t>bias passe de 195 a 193 ms</t>
+  </si>
+  <si>
+    <t>prendre en compte le delta distance echo front back</t>
+  </si>
+  <si>
+    <t>faire +2cm dans le robot (a faire avant refqire un scan complet)</t>
+  </si>
+  <si>
+    <t>prendre en compte le delta centre rotation et echo</t>
+  </si>
+  <si>
+    <t>ajouter un ack reception des commandes par le robot</t>
+  </si>
+  <si>
+    <t>utiliser l octet 0x64 pour ajouter n° de trame de java vers robot ?</t>
+  </si>
+  <si>
+    <t>Ne pas prendre en compte les resultats de echoconsistancy au dessous d'un certain seuil</t>
+  </si>
+  <si>
+    <t>seuil a determiner - pour conserver les memes prob que le mseure precedente</t>
+  </si>
+  <si>
+    <t>Tuner le filtre a particules / poids des mesures</t>
+  </si>
+  <si>
+    <t>Revoir le test echoconsistancy et cartoecho independante de la carto geo</t>
+  </si>
+  <si>
+    <t>Ajouter test possiblite de sauter 1 ou plusieurs steps dans compute next step</t>
+  </si>
+  <si>
+    <t>a chaque etape voir si l'on ne peut pas joindre des steps suivants en diretc</t>
+  </si>
+  <si>
+    <t>Ajouter un calcul position base sur gyro dans l arduino</t>
+  </si>
+  <si>
+    <t>attendre avoir solution magnetometre definitive
+en profiter pour enregister en BD le magneto orient</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I57" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I69"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1330,10 +1400,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N57"/>
+  <dimension ref="B1:N69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1465,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42700</v>
+        <v>42728</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1414,20 +1484,18 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1449,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1547,7 @@
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -1492,7 +1560,7 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -1591,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1781,7 @@
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1731,12 +1799,12 @@
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -1754,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1840,7 @@
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -1790,12 +1858,12 @@
         <v>2</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -1811,12 +1879,12 @@
         <v>2</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -1834,12 +1902,12 @@
         <v>2</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
@@ -1857,12 +1925,12 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -1879,7 +1947,7 @@
     </row>
     <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1894,7 +1962,7 @@
     </row>
     <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -1912,12 +1980,12 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -1936,7 +2004,7 @@
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -1954,12 +2022,12 @@
         <v>2</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -1977,31 +2045,33 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
       <c r="H32" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -2019,12 +2089,12 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
@@ -2045,7 +2115,7 @@
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -2063,52 +2133,56 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
       <c r="H36" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I36" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H37" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
@@ -2126,18 +2200,18 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2146,11 +2220,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2165,7 +2241,7 @@
     </row>
     <row r="41" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -2183,12 +2259,12 @@
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2206,12 +2282,12 @@
         <v>2</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -2229,12 +2305,12 @@
         <v>1</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -2253,7 +2329,7 @@
     </row>
     <row r="45" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>10</v>
@@ -2272,7 +2348,7 @@
     </row>
     <row r="46" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>10</v>
@@ -2291,7 +2367,7 @@
     </row>
     <row r="47" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -2310,7 +2386,7 @@
     </row>
     <row r="48" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>10</v>
@@ -2329,7 +2405,7 @@
     </row>
     <row r="49" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>10</v>
@@ -2345,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2355,7 +2431,7 @@
     </row>
     <row r="50" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -2373,12 +2449,12 @@
         <v>2</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -2389,19 +2465,19 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H51" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>10</v>
@@ -2416,13 +2492,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>100</v>
+      <c r="I52" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -2432,18 +2508,20 @@
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="12"/>
+      <c r="G53" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H53" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>92</v>
+      <c r="I53" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -2454,24 +2532,26 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="12"/>
@@ -2480,12 +2560,12 @@
         <v>2</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -2495,18 +2575,20 @@
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="12"/>
+      <c r="G56" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H56" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -2517,19 +2599,253 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H62" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I69" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G57">
+  <conditionalFormatting sqref="G5:G69">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -2544,16 +2860,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G57">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G69">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C57">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C69">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F57">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F69">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D57 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D69 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2580,7 +2896,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G57</xm:sqref>
+          <xm:sqref>G5:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -2599,7 +2915,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H57</xm:sqref>
+          <xm:sqref>H5:H69</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2609,44 +2925,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="C1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="J1" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
@@ -3112,7 +3428,7 @@
         <v>312.5</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:L37" si="2">H19/G19</f>
+        <f t="shared" ref="L19:L42" si="2">H19/G19</f>
         <v>0.95522388059701491</v>
       </c>
     </row>
@@ -3214,7 +3530,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -3325,7 +3641,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -3385,7 +3701,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -3475,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>298</v>
+        <v>-298</v>
       </c>
       <c r="H36">
-        <v>294</v>
+        <v>-294</v>
       </c>
       <c r="J36">
         <v>-338</v>
@@ -3513,6 +3829,125 @@
       <c r="L37" s="17">
         <f t="shared" si="2"/>
         <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>360</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>315</v>
+      </c>
+      <c r="H39">
+        <v>318</v>
+      </c>
+      <c r="J39">
+        <v>348</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0095238095238095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-360</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>-290</v>
+      </c>
+      <c r="H40">
+        <v>-291</v>
+      </c>
+      <c r="J40">
+        <v>-341</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0034482758620689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>180</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>165</v>
+      </c>
+      <c r="H41">
+        <v>163</v>
+      </c>
+      <c r="J41">
+        <v>178</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="2"/>
+        <v>0.98787878787878791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>-90</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>-85</v>
+      </c>
+      <c r="H42">
+        <v>-87</v>
+      </c>
+      <c r="J42">
+        <v>-107</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0235294117647058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -487,9 +487,6 @@
     <t>tester le WS16 10DOF MPU6050 HMC5883L BMP180</t>
   </si>
   <si>
-    <t>en attente reception</t>
-  </si>
-  <si>
     <t xml:space="preserve">tester le QH86 IIC BNO055 AHRS Capteur 9 DOF Absolue Orientation IMU Module BNO-055 </t>
   </si>
   <si>
@@ -527,9 +524,6 @@
   </si>
   <si>
     <t>Ajouter test possiblite de sauter 1 ou plusieurs steps dans compute next step</t>
-  </si>
-  <si>
-    <t>a chaque etape voir si l'on ne peut pas joindre des steps suivants en diretc</t>
   </si>
   <si>
     <t>Ajouter un calcul position base sur gyro dans l arduino</t>
@@ -537,6 +531,43 @@
   <si>
     <t>attendre avoir solution magnetometre definitive
 en profiter pour enregister en BD le magneto orient</t>
+  </si>
+  <si>
+    <t>a chaque etape voir si l'on ne peut pas joindre des steps suivants en direct
+fait pour 1 step</t>
+  </si>
+  <si>
+    <t>sur la base des echo en BD</t>
+  </si>
+  <si>
+    <t>Utiliser accelerometre pour detecter les chocs</t>
+  </si>
+  <si>
+    <t>Affiner carto en tenant compte des arronids</t>
+  </si>
+  <si>
+    <t>Debuger trajet en marche arriere</t>
+  </si>
+  <si>
+    <t>ok with simultaor to be validated with real robot</t>
+  </si>
+  <si>
+    <t>le magnetometre ne semble pas fonctionner !</t>
+  </si>
+  <si>
+    <t>semble une bonne piste mais qui necessite de revoir largement le sous systeme</t>
+  </si>
+  <si>
+    <t>Ajouter dispo surveillance alim moteurs</t>
+  </si>
+  <si>
+    <t>corriger Jeu roue gauche sur axe</t>
+  </si>
+  <si>
+    <t>Considerer le centre du robot comme reference de la position</t>
+  </si>
+  <si>
+    <t>pour simplifier les calcules - compenser entre contre partie les echos</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I75" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I75"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1400,10 +1431,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N69"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1496,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42728</v>
+        <v>42739</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2493,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2659,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2669,18 +2700,18 @@
         <v>2</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -2690,12 +2721,12 @@
         <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -2716,7 +2747,7 @@
     </row>
     <row r="63" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -2732,12 +2763,12 @@
         <v>2</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>10</v>
@@ -2751,17 +2782,19 @@
         <v>2</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="12"/>
@@ -2770,12 +2803,12 @@
         <v>2</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -2792,43 +2825,53 @@
     </row>
     <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H67" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H68" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>135</v>
+      <c r="I68" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -2843,9 +2886,127 @@
       </c>
       <c r="I69" s="5"/>
     </row>
+    <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H71" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="7">
+        <v>1</v>
+      </c>
+      <c r="H74" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G69">
+  <conditionalFormatting sqref="G5:G75">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -2860,16 +3021,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G69">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G75">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C69">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C75">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F69">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F75">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D69 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D75 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2896,7 +3057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G69</xm:sqref>
+          <xm:sqref>G5:G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -2915,7 +3076,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H69</xm:sqref>
+          <xm:sqref>H5:H75</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3836,7 +3997,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39">
         <v>40</v>
@@ -3947,7 +4108,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
   <si>
     <r>
       <rPr>
@@ -514,9 +514,6 @@
     <t>Ne pas prendre en compte les resultats de echoconsistancy au dessous d'un certain seuil</t>
   </si>
   <si>
-    <t>seuil a determiner - pour conserver les memes prob que le mseure precedente</t>
-  </si>
-  <si>
     <t>Tuner le filtre a particules / poids des mesures</t>
   </si>
   <si>
@@ -543,31 +540,79 @@
     <t>Utiliser accelerometre pour detecter les chocs</t>
   </si>
   <si>
-    <t>Affiner carto en tenant compte des arronids</t>
-  </si>
-  <si>
     <t>Debuger trajet en marche arriere</t>
   </si>
   <si>
     <t>ok with simultaor to be validated with real robot</t>
   </si>
   <si>
-    <t>le magnetometre ne semble pas fonctionner !</t>
-  </si>
-  <si>
-    <t>semble une bonne piste mais qui necessite de revoir largement le sous systeme</t>
-  </si>
-  <si>
     <t>Ajouter dispo surveillance alim moteurs</t>
   </si>
   <si>
-    <t>corriger Jeu roue gauche sur axe</t>
-  </si>
-  <si>
-    <t>Considerer le centre du robot comme reference de la position</t>
-  </si>
-  <si>
-    <t>pour simplifier les calcules - compenser entre contre partie les echos</t>
+    <t>juste serrage des vis</t>
+  </si>
+  <si>
+    <t>juste realise le calcul du decalage lie au centre de rotation sur base gyro</t>
+  </si>
+  <si>
+    <t>Affiner carto en tenant compte des arrondis</t>
+  </si>
+  <si>
+    <t>Corriger Jeu roue gauche sur axe</t>
+  </si>
+  <si>
+    <t>Debuger decalage entre theo et particles</t>
+  </si>
+  <si>
+    <t>Reparer panne alimentation 5 et 9v</t>
+  </si>
+  <si>
+    <t>remplacement des 2 modules - 5v a l identique 9 v par regulateur integre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remplace par une ponderation des mesures en entree de determine particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reste a valider en reel </t>
+  </si>
+  <si>
+    <t>Ecrire une fonction de test echo consistency basee sur les echos en BD et non la carto</t>
+  </si>
+  <si>
+    <t>developpement fait - voir si cela donne de meilleurs resultats que sur base carto</t>
+  </si>
+  <si>
+    <t>Tunner les dimensions physiques du robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diametre des roues ajustes </t>
+  </si>
+  <si>
+    <t>Developper la fonction de calcul de la position relative dans le sous-système</t>
+  </si>
+  <si>
+    <t>necessite que le robot communique regulierement le deplacement</t>
+  </si>
+  <si>
+    <t>gyroscope: semble une bonne piste mais qui necessite de revoir largement le sous système</t>
+  </si>
+  <si>
+    <t>plus precis que le developpement maison (BNO055 en mode IMU)</t>
+  </si>
+  <si>
+    <t>Utiliser BNO055 pour valider la fonction gyroscope</t>
+  </si>
+  <si>
+    <t>le magnetometre ne semble pas fonctionner et le BNO055 une meilleure solution</t>
+  </si>
+  <si>
+    <t>Utiliser la fonction magnetometre du BNO055</t>
+  </si>
+  <si>
+    <t>POC utilisation de l'accelerometre BNO055 pour detecter les chocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necessite de developper une fonction de switch des modes </t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I75" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I82" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I82"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1431,10 +1476,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N75"/>
+  <dimension ref="B1:N82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1541,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42739</v>
+        <v>42741</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2524,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2690,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2700,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,13 +2760,15 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H61" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,7 +2790,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="63" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
@@ -2757,7 +2806,9 @@
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H63" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -2793,30 +2844,36 @@
         <v>12</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="12"/>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
       <c r="H65" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H66" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -2825,7 +2882,7 @@
     </row>
     <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -2843,12 +2900,12 @@
         <v>2</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>10</v>
@@ -2866,29 +2923,35 @@
         <v>2</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H69" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>10</v>
@@ -2905,7 +2968,7 @@
     </row>
     <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -2926,7 +2989,7 @@
     </row>
     <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -2944,12 +3007,12 @@
         <v>2</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>10</v>
@@ -2966,7 +3029,7 @@
     </row>
     <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>10</v>
@@ -2983,30 +3046,181 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="12"/>
+      <c r="G75" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H75" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>147</v>
       </c>
+    </row>
+    <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H77" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I82" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G75">
+  <conditionalFormatting sqref="G5:G82">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -3021,16 +3235,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G75">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G82">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C75">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C82">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F75">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F82">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D75 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D82 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3057,7 +3271,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G75</xm:sqref>
+          <xm:sqref>G5:G82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3076,7 +3290,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H75</xm:sqref>
+          <xm:sqref>H5:H82</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3092,7 +3306,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
   <si>
     <r>
       <rPr>
@@ -523,9 +523,6 @@
     <t>Ajouter test possiblite de sauter 1 ou plusieurs steps dans compute next step</t>
   </si>
   <si>
-    <t>Ajouter un calcul position base sur gyro dans l arduino</t>
-  </si>
-  <si>
     <t>attendre avoir solution magnetometre definitive
 en profiter pour enregister en BD le magneto orient</t>
   </si>
@@ -546,9 +543,6 @@
     <t>ok with simultaor to be validated with real robot</t>
   </si>
   <si>
-    <t>Ajouter dispo surveillance alim moteurs</t>
-  </si>
-  <si>
     <t>juste serrage des vis</t>
   </si>
   <si>
@@ -591,9 +585,6 @@
     <t>Developper la fonction de calcul de la position relative dans le sous-système</t>
   </si>
   <si>
-    <t>necessite que le robot communique regulierement le deplacement</t>
-  </si>
-  <si>
     <t>gyroscope: semble une bonne piste mais qui necessite de revoir largement le sous système</t>
   </si>
   <si>
@@ -613,6 +604,21 @@
   </si>
   <si>
     <t xml:space="preserve">necessite de developper une fonction de switch des modes </t>
+  </si>
+  <si>
+    <t>necessite que le robot communique regulierement le deplacement / notamment utile quand le robot touche</t>
+  </si>
+  <si>
+    <t>Developper une fonction retrait si blocage des roues</t>
+  </si>
+  <si>
+    <t>Ajouter dispositif surveillance alim moteurs</t>
+  </si>
+  <si>
+    <t>Ajouter un calcul position base sur gyro dans l arduino Mega</t>
+  </si>
+  <si>
+    <t>Ajouter affichage java du statut BNO</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I82" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I84" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I84"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1476,10 +1482,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N82"/>
+  <dimension ref="B1:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1547,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42741</v>
+        <v>42757</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2569,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2824,13 +2830,17 @@
       <c r="C64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="12"/>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
       <c r="H64" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>128</v>
@@ -2856,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2923,12 +2933,12 @@
         <v>2</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -2946,12 +2956,12 @@
         <v>2</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>10</v>
@@ -2968,7 +2978,7 @@
     </row>
     <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -2989,7 +2999,7 @@
     </row>
     <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -3007,12 +3017,12 @@
         <v>2</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>10</v>
@@ -3029,7 +3039,7 @@
     </row>
     <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>10</v>
@@ -3047,12 +3057,12 @@
         <v>1</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>10</v>
@@ -3073,7 +3083,7 @@
     </row>
     <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>15</v>
@@ -3091,12 +3101,12 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -3114,12 +3124,12 @@
         <v>2</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -3130,19 +3140,19 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H78" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
@@ -3156,12 +3166,12 @@
         <v>2</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -3179,31 +3189,35 @@
         <v>2</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="12"/>
+      <c r="G81" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H81" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -3218,9 +3232,45 @@
       </c>
       <c r="I82" s="5"/>
     </row>
+    <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H84" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G82">
+  <conditionalFormatting sqref="G5:G84">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
@@ -3235,16 +3285,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G82">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G84">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C82">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C84">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F82">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F84">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D82 B22">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D84 B22">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3271,7 +3321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G82</xm:sqref>
+          <xm:sqref>G5:G84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3290,7 +3340,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H82</xm:sqref>
+          <xm:sqref>H5:H84</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
   <si>
     <r>
       <rPr>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Debug  "DetermineRobotLocationWithParticlesGaussian()"</t>
-  </si>
-  <si>
-    <t>alors que le robot est pose sur socle</t>
   </si>
   <si>
     <r>
@@ -196,9 +193,6 @@
     <t xml:space="preserve"> Modifier traitements particules quand le robot interromp son deplacement (ex motor diag=0x04 et obstacle)</t>
   </si>
   <si>
-    <t>se declenche tres souvent</t>
-  </si>
-  <si>
     <t>refaire le move particules avec distance inferieure
 utiliser le retCode actionEnd</t>
   </si>
@@ -212,14 +206,7 @@
     <t>Ne pas recalculer la trajectoire si on est proche de next step</t>
   </si>
   <si>
-    <t>en grande partie du aux ko lors des deplacements (corrige)
-reste à verifier que le pb a complement disparu</t>
-  </si>
-  <si>
     <t>Fiabiliser robot pbSynchro motor</t>
-  </si>
-  <si>
-    <t>d  abord faire le simulateur fonction pingFB</t>
   </si>
   <si>
     <t>Différé</t>
@@ -267,9 +254,6 @@
     <t>Verifier coherence de la carto</t>
   </si>
   <si>
-    <t>cf 2016/09/28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerer dans octave les differents timeout </t>
   </si>
   <si>
@@ -280,9 +264,6 @@
   </si>
   <si>
     <t>Debuguer envoi successif de echo de java vers robot</t>
-  </si>
-  <si>
-    <t>a tester</t>
   </si>
   <si>
     <t>Remonter les data encodeurs en fin de move</t>
@@ -323,9 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">modifs au fil de l'eau </t>
-  </si>
-  <si>
-    <t>Re-écrire le code Octave test</t>
   </si>
   <si>
     <t>valeurs toujours tres faibles ! Non significatives
@@ -372,12 +350,6 @@
     <t>Basculer mouvement du robot en angle distance VS (X,Y)</t>
   </si>
   <si>
-    <t>Reduire voltage alimentation moteur a 11v</t>
-  </si>
-  <si>
-    <t>pas retenue</t>
-  </si>
-  <si>
     <t>Externaliser les parametres PWM et encodeurs</t>
   </si>
   <si>
@@ -399,9 +371,6 @@
     <t xml:space="preserve">Etudier la possibilite de recalibrer facilement la boussole </t>
   </si>
   <si>
-    <t>pouvoir demonter facilement</t>
-  </si>
-  <si>
     <t>Revoir architecture capteur si POC gyroscope Ok</t>
   </si>
   <si>
@@ -412,9 +381,6 @@
   </si>
   <si>
     <t>Definir un plan de validation des datas gyroscope</t>
-  </si>
-  <si>
-    <t>Necessite externalisation de parametres ODR et range</t>
   </si>
   <si>
     <t>ODR</t>
@@ -534,15 +500,9 @@
     <t>sur la base des echo en BD</t>
   </si>
   <si>
-    <t>Utiliser accelerometre pour detecter les chocs</t>
-  </si>
-  <si>
     <t>Debuger trajet en marche arriere</t>
   </si>
   <si>
-    <t>ok with simultaor to be validated with real robot</t>
-  </si>
-  <si>
     <t>juste serrage des vis</t>
   </si>
   <si>
@@ -603,22 +563,92 @@
     <t>POC utilisation de l'accelerometre BNO055 pour detecter les chocs</t>
   </si>
   <si>
+    <t>necessite que le robot communique regulierement le deplacement / notamment utile quand le robot touche</t>
+  </si>
+  <si>
+    <t>Developper une fonction retrait si blocage des roues</t>
+  </si>
+  <si>
+    <t>Ajouter dispositif surveillance alim moteurs</t>
+  </si>
+  <si>
+    <t>Ajouter un calcul position base sur gyro dans l arduino Mega</t>
+  </si>
+  <si>
+    <t>Ajouter affichage java du statut BNO</t>
+  </si>
+  <si>
+    <t>alors que le robot est pose sur socle
+le pb ne s est pas reproduit</t>
+  </si>
+  <si>
+    <t>en grande partie du aux ko lors des deplacements (corrige)
+reste à verifier que le pb a complement disparu
+clos apres prise en compte du decalage entre centre rotation roue et centre robot</t>
+  </si>
+  <si>
+    <t>se declenche tres souvent
+qq modifs du  code</t>
+  </si>
+  <si>
+    <t>corrige</t>
+  </si>
+  <si>
+    <t>pas retenu</t>
+  </si>
+  <si>
+    <t>Re-écrire le code Octave test trajectory</t>
+  </si>
+  <si>
+    <t>pas pertinent apres usage IMU</t>
+  </si>
+  <si>
+    <t>(reel, test patricules) a valider</t>
+  </si>
+  <si>
     <t xml:space="preserve">necessite de developper une fonction de switch des modes </t>
   </si>
   <si>
-    <t>necessite que le robot communique regulierement le deplacement / notamment utile quand le robot touche</t>
-  </si>
-  <si>
-    <t>Developper une fonction retrait si blocage des roues</t>
-  </si>
-  <si>
-    <t>Ajouter dispositif surveillance alim moteurs</t>
-  </si>
-  <si>
-    <t>Ajouter un calcul position base sur gyro dans l arduino Mega</t>
-  </si>
-  <si>
-    <t>Ajouter affichage java du statut BNO</t>
+    <t>Necessite externalisation de parametres ODR et range fait mais plus necessaire avec IMU</t>
+  </si>
+  <si>
+    <t>pouvoir demonter facilement - plus necessaire avec IMU</t>
+  </si>
+  <si>
+    <t>Reduire voltage alimentation moteur a 10v</t>
+  </si>
+  <si>
+    <t>pour gagner en performance voire en dynamique</t>
+  </si>
+  <si>
+    <t>Revoir la façon de determiner le path (type Voronoi graph ou potentiel field ou probabilistic road map planner ?)</t>
+  </si>
+  <si>
+    <t>Rechercer des bibliothques Octave pour accroitre performance de l analyse  echo (cf biblio python)</t>
+  </si>
+  <si>
+    <t>dans Octave traduire les coordonnees du robot sous forme de matrice (x,y,theta)</t>
+  </si>
+  <si>
+    <t>Ameliorer la detection d obstacle pour eviter les contacts</t>
+  </si>
+  <si>
+    <t>En cas de code retour move negatif augmenter le sigma du move particules</t>
+  </si>
+  <si>
+    <t>Prendre en compte dans Octave l'impossibilite de localisation</t>
+  </si>
+  <si>
+    <t>Etendre apprentissage echo au salon &amp; etendre zonexy</t>
+  </si>
+  <si>
+    <t>Tester echolocalisation avec ML rotation virtuelele</t>
+  </si>
+  <si>
+    <t>Avant  move verifier faisabilite avec echo</t>
+  </si>
+  <si>
+    <t>Avant rotation verifier faisabilite avec echo</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I84" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I92"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1482,10 +1512,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N84"/>
+  <dimension ref="B1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1577,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42757</v>
+        <v>42844</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1560,7 +1590,7 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -1581,7 +1611,7 @@
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
@@ -1599,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,13 +1659,13 @@
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="9">
         <v>42579</v>
@@ -1649,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,9 +1699,7 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1702,13 +1730,13 @@
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1717,13 +1745,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>21</v>
+      <c r="I12" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -1741,35 +1769,35 @@
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -1791,12 +1819,12 @@
         <v>1</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -1816,18 +1844,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1837,142 +1865,156 @@
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H18" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>28</v>
+      <c r="I18" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H19" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H20" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
       <c r="H21" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H23" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>50</v>
+      <c r="I23" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1983,41 +2025,39 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>70</v>
+      <c r="I24" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="G25" s="12"/>
       <c r="H25" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="12"/>
@@ -2029,25 +2069,33 @@
     </row>
     <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
       <c r="H27" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
@@ -2061,23 +2109,23 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H29" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -2086,30 +2134,30 @@
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H30" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -2126,13 +2174,11 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -2149,14 +2195,16 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
@@ -2170,16 +2218,14 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
@@ -2193,11 +2239,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -2215,12 +2263,12 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -2237,16 +2285,14 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
@@ -2260,145 +2306,151 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
+      <c r="G38" s="12"/>
       <c r="H38" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
       <c r="H39" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H40" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="7">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H42" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
+      <c r="G43" s="12"/>
       <c r="H43" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -2409,15 +2461,15 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -2428,15 +2480,15 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -2447,15 +2499,15 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -2466,15 +2518,15 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2483,66 +2535,70 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H49" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2551,42 +2607,44 @@
       </c>
       <c r="H51" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
       <c r="H52" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2597,130 +2655,132 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="12"/>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
       <c r="H55" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="G57" s="12"/>
       <c r="H57" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="12"/>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
       <c r="H58" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2730,105 +2790,107 @@
         <v>2</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
       <c r="H60" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H61" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H62" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H63" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>11</v>
@@ -2843,108 +2905,108 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H66" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I66" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H67" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2955,42 +3017,42 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="I69" s="5"/>
     </row>
     <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H70" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="7">
-        <v>0.25</v>
-      </c>
+      <c r="G71" s="12"/>
       <c r="H71" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -2999,38 +3061,42 @@
     </row>
     <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H72" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="12"/>
+      <c r="G73" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H73" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -3039,10 +3105,10 @@
     </row>
     <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>11</v>
@@ -3057,187 +3123,189 @@
         <v>1</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H75" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H76" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H77" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H78" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="12"/>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
       <c r="H79" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D80" s="5"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="7">
-        <v>1</v>
-      </c>
+      <c r="G80" s="12"/>
       <c r="H80" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="G81" s="12"/>
       <c r="H81" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="12"/>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
       <c r="H82" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="12"/>
@@ -3245,33 +3313,161 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="7">
+      <c r="G84" s="12"/>
+      <c r="H84" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7">
         <v>0.75</v>
       </c>
-      <c r="H84" s="13">
-        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I84" s="5"/>
+      <c r="H88" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H92" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I92" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G84">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="G5:G92">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3285,17 +3481,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="G5:G84">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D92">
+      <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G5:G92">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C84">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C92">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F84">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F92">
       <formula1>F5&gt;=E5</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="D5:D84 B22">
-      <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3321,10 +3517,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G84</xm:sqref>
+          <xm:sqref>G5:G92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3340,7 +3536,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H84</xm:sqref>
+          <xm:sqref>H5:H92</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3366,28 +3562,28 @@
   <sheetData>
     <row r="1" spans="3:11" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="C1" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
@@ -3955,7 +4151,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -4066,7 +4262,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -4126,7 +4322,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -4261,7 +4457,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C39">
         <v>40</v>
@@ -4372,7 +4568,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="182">
   <si>
     <r>
       <rPr>
@@ -642,13 +642,37 @@
     <t>Etendre apprentissage echo au salon &amp; etendre zonexy</t>
   </si>
   <si>
-    <t>Tester echolocalisation avec ML rotation virtuelele</t>
-  </si>
-  <si>
     <t>Avant  move verifier faisabilite avec echo</t>
   </si>
   <si>
     <t>Avant rotation verifier faisabilite avec echo</t>
+  </si>
+  <si>
+    <t>Tester echolocalisation avec ML rotation virtuelle</t>
+  </si>
+  <si>
+    <t>Traiter le cas move impossible dans octave</t>
+  </si>
+  <si>
+    <t>remonter min echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir le calcul du path </t>
+  </si>
+  <si>
+    <t>cf cours EDX (soit potentiel ou chemin predetermine et utiliser le astar pour rejonidre le point le + proche predefini)</t>
+  </si>
+  <si>
+    <t>Traiter le cas localisation theorique impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir Octave avec un Objet robot </t>
+  </si>
+  <si>
+    <t>Opitmiser le move particles</t>
+  </si>
+  <si>
+    <t>Distinguer les cas roue stopped et decalge de speed</t>
   </si>
 </sst>
 </file>
@@ -658,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -722,6 +746,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -784,7 +814,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +868,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1248,8 +1281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I98" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I98"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1512,10 +1545,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N92"/>
+  <dimension ref="B1:N98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1610,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42844</v>
+        <v>42859</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3383,7 +3416,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3400,7 +3433,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="18" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
@@ -3434,7 +3469,7 @@
     </row>
     <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3449,10 +3484,12 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="7">
@@ -3464,9 +3501,109 @@
       </c>
       <c r="I92" s="5"/>
     </row>
+    <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H93" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H98" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G92">
+  <conditionalFormatting sqref="G5:G98">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
@@ -3481,16 +3618,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D92">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D98">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G92">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G98">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C92">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C98">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F92">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F98">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3517,7 +3654,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G92</xm:sqref>
+          <xm:sqref>G5:G98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3536,7 +3673,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H92</xm:sqref>
+          <xm:sqref>H5:H98</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -636,9 +636,6 @@
     <t>En cas de code retour move negatif augmenter le sigma du move particules</t>
   </si>
   <si>
-    <t>Prendre en compte dans Octave l'impossibilite de localisation</t>
-  </si>
-  <si>
     <t>Etendre apprentissage echo au salon &amp; etendre zonexy</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>remonter min echo</t>
   </si>
   <si>
-    <t xml:space="preserve">Revoir le calcul du path </t>
-  </si>
-  <si>
     <t>cf cours EDX (soit potentiel ou chemin predetermine et utiliser le astar pour rejonidre le point le + proche predefini)</t>
   </si>
   <si>
@@ -669,10 +663,19 @@
     <t xml:space="preserve">Revoir Octave avec un Objet robot </t>
   </si>
   <si>
-    <t>Opitmiser le move particles</t>
-  </si>
-  <si>
-    <t>Distinguer les cas roue stopped et decalge de speed</t>
+    <t>Distinguer les cas roue stopped et decalage de speed</t>
+  </si>
+  <si>
+    <t>Prendre en compte dans Octave l'impossibilite d'une  localisation par ailleurs determinee</t>
+  </si>
+  <si>
+    <t>Revoir le calcul du path (cf EDX)</t>
+  </si>
+  <si>
+    <t>Optimiser le move particles</t>
+  </si>
+  <si>
+    <t>Intensifier les scans references au niveau des points delicats (ex porte)</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1284,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I98" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I99" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I99"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1545,10 +1548,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N98"/>
+  <dimension ref="B1:N99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1613,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42859</v>
+        <v>42873</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3389,10 +3392,14 @@
         <v>167</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H86" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -3416,7 +3423,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3434,12 +3441,12 @@
         <v>2</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3454,13 +3461,17 @@
     </row>
     <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
       <c r="H90" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -3469,7 +3480,7 @@
     </row>
     <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3484,7 +3495,7 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -3503,7 +3514,7 @@
     </row>
     <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -3512,7 +3523,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H93" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -3522,7 +3533,7 @@
     </row>
     <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3537,7 +3548,7 @@
     </row>
     <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3549,12 +3560,12 @@
         <v>2</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3569,7 +3580,7 @@
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3584,7 +3595,7 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -3593,17 +3604,36 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H98" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I99" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G98">
+  <conditionalFormatting sqref="G5:G99">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
@@ -3618,16 +3648,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D98">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D99">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G98">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G99">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C98">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C99">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F98">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F99">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3654,7 +3684,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G98</xm:sqref>
+          <xm:sqref>G5:G99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3673,7 +3703,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H98</xm:sqref>
+          <xm:sqref>H5:H99</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -654,9 +654,6 @@
     <t>remonter min echo</t>
   </si>
   <si>
-    <t>cf cours EDX (soit potentiel ou chemin predetermine et utiliser le astar pour rejonidre le point le + proche predefini)</t>
-  </si>
-  <si>
     <t>Traiter le cas localisation theorique impossible</t>
   </si>
   <si>
@@ -676,6 +673,18 @@
   </si>
   <si>
     <t>Intensifier les scans references au niveau des points delicats (ex porte)</t>
+  </si>
+  <si>
+    <t>suivant chemin predefini</t>
+  </si>
+  <si>
+    <t>Developper une fonction franchissement de porte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sur base de scan intensifs completes de mesures directes </t>
+  </si>
+  <si>
+    <t>Developper une fonction localisation fine sur la base de quelques points choisis de  la carto</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I99" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I102" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I102"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1548,10 +1557,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N99"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1622,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42873</v>
+        <v>42902</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3446,7 +3455,7 @@
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3533,7 +3542,7 @@
     </row>
     <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3548,24 +3557,28 @@
     </row>
     <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="12"/>
+      <c r="G95" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H95" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3580,7 +3593,7 @@
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3595,7 +3608,7 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -3614,7 +3627,7 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -3631,9 +3644,54 @@
       </c>
       <c r="I99" s="5"/>
     </row>
+    <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G99">
+  <conditionalFormatting sqref="G5:G102">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
@@ -3648,16 +3706,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D99">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D102">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G99">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G102">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C99">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C102">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F99">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F102">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3684,7 +3742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G99</xm:sqref>
+          <xm:sqref>G5:G102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3703,7 +3761,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H99</xm:sqref>
+          <xm:sqref>H5:H102</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -685,6 +685,21 @@
   </si>
   <si>
     <t>Developper une fonction localisation fine sur la base de quelques points choisis de  la carto</t>
+  </si>
+  <si>
+    <t>Refaire alimentation des encodeurs</t>
+  </si>
+  <si>
+    <t>suite erreur connexion des transisteurs</t>
+  </si>
+  <si>
+    <t>reste debugging</t>
+  </si>
+  <si>
+    <t>Download des parametres du robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pour tunning dynamique </t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1308,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I102" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I103" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I103"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1557,10 +1572,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N102"/>
+  <dimension ref="B1:N103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1637,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42902</v>
+        <v>42926</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1717,7 +1732,7 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -3581,15 +3596,21 @@
         <v>176</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="12"/>
+      <c r="G96" s="7">
+        <v>1</v>
+      </c>
       <c r="H96" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I96" s="5"/>
+      <c r="I96" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
@@ -3677,21 +3698,50 @@
       </c>
     </row>
     <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="12"/>
+      <c r="G102" s="7">
+        <v>1</v>
+      </c>
       <c r="H102" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I102" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="7">
+        <v>1</v>
+      </c>
+      <c r="H103" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G102">
+  <conditionalFormatting sqref="G5:G103">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
@@ -3706,16 +3756,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D102">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D103">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G102">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G103">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C102">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C103">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F102">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F103">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3742,7 +3792,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G102</xm:sqref>
+          <xm:sqref>G5:G103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -3761,7 +3811,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H102</xm:sqref>
+          <xm:sqref>H5:H103</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -700,6 +700,72 @@
   </si>
   <si>
     <t xml:space="preserve">pour tunning dynamique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester debuger le ping front </t>
+  </si>
+  <si>
+    <t>Remplacer le servo moteur pour eviter tremblements</t>
+  </si>
+  <si>
+    <t>Faire releve des pings en approche de portes</t>
+  </si>
+  <si>
+    <t>Distinguer echo 0 de echo max</t>
+  </si>
+  <si>
+    <t>surveiller le non decalage position encodeur VS roue</t>
+  </si>
+  <si>
+    <t>via marque noire</t>
+  </si>
+  <si>
+    <t>Monitorer l alim des moteurs (avant et apres regulateur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocker en BD les tensions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifier / modifier le wait apres atteinte seuil encodeur pour prendre en compte la fin de mouvement </t>
+  </si>
+  <si>
+    <t>Developper une fonction octave graph compare de 2 trajectoires avec heading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ApShowComparedStep(apRobot,det,actualPositions,"blue cyan: determined -- black red: actual")</t>
+  </si>
+  <si>
+    <t>Java ne pas enregistrer les records scan recus en double</t>
+  </si>
+  <si>
+    <t>ajout d un timer dans la loop en lieu et place du delay</t>
+  </si>
+  <si>
+    <t>pour identifier les pbs d alimentation via une non montee du signal - a traiter via librairie NewPing</t>
+  </si>
+  <si>
+    <t>Constituer un dossier de maintenance (procedure outils checklist,,,)</t>
+  </si>
+  <si>
+    <t>semble irregulier VS ping back &gt;&gt; apres analyse SRF-05 return 0 aux environs de 3m (la doc parle de 4m) Front et Back sont similaires</t>
+  </si>
+  <si>
+    <t>Developper une fonction test echo</t>
+  </si>
+  <si>
+    <t>LoopPingFB,m + MySql repondent au besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etendre la carto au couloir et 1ere partie du salon </t>
+  </si>
+  <si>
+    <t>a faire les jeux de tests</t>
+  </si>
+  <si>
+    <t>to be checked</t>
+  </si>
+  <si>
+    <t>a valider en reel</t>
   </si>
 </sst>
 </file>
@@ -777,7 +843,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -908,7 +974,7 @@
     <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1116,8 +1182,34 @@
         </vertical>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
+  <tableStyles count="3" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+    </tableStyle>
     <tableStyle name="To Do List" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
@@ -1308,8 +1400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I103" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I116" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I116"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1572,10 +1664,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N103"/>
+  <dimension ref="B1:N116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1729,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42926</v>
+        <v>42942</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2612,16 +2704,16 @@
         <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H49" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>103</v>
@@ -3489,12 +3581,12 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H90" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -3739,10 +3831,261 @@
         <v>190</v>
       </c>
     </row>
+    <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H104" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H108" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H109" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="7">
+        <v>1</v>
+      </c>
+      <c r="H110" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H111" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="7">
+        <v>1</v>
+      </c>
+      <c r="H112" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H113" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H115" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H116" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G103">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="G5:G116">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3756,16 +4099,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D103">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D116">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G103">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G116">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C103">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C116">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F103">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F116">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3792,10 +4135,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G103</xm:sqref>
+          <xm:sqref>G5:G116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="68" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3811,7 +4154,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H103</xm:sqref>
+          <xm:sqref>H5:H116</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
   <si>
     <r>
       <rPr>
@@ -618,9 +618,6 @@
     <t>Reduire voltage alimentation moteur a 10v</t>
   </si>
   <si>
-    <t>pour gagner en performance voire en dynamique</t>
-  </si>
-  <si>
     <t>Revoir la façon de determiner le path (type Voronoi graph ou potentiel field ou probabilistic road map planner ?)</t>
   </si>
   <si>
@@ -766,6 +763,18 @@
   </si>
   <si>
     <t>a valider en reel</t>
+  </si>
+  <si>
+    <t>fait dans la Version ApRobot</t>
+  </si>
+  <si>
+    <t>solution retenue: 1 route predefinie</t>
+  </si>
+  <si>
+    <t>Developper une application de supervision basee sur les statistiques</t>
+  </si>
+  <si>
+    <t>Utiliser le gyroscope pour affiner le mouvement rectiligne (PID ?)</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I116" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I118" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I118"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1664,10 +1673,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N116"/>
+  <dimension ref="B1:N118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1738,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3201,13 +3210,17 @@
       <c r="C71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
       <c r="H71" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="5"/>
     </row>
@@ -3450,28 +3463,30 @@
     </row>
     <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="12"/>
+      <c r="G83" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H83" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
@@ -3490,22 +3505,28 @@
     </row>
     <row r="85" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="12"/>
+      <c r="G85" s="7">
+        <v>1</v>
+      </c>
       <c r="H85" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I85" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="86" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
@@ -3524,7 +3545,7 @@
     </row>
     <row r="87" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3539,7 +3560,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3557,12 +3578,12 @@
         <v>2</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3577,7 +3598,7 @@
     </row>
     <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -3596,7 +3617,7 @@
     </row>
     <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3611,7 +3632,7 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -3630,7 +3651,7 @@
     </row>
     <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -3649,7 +3670,7 @@
     </row>
     <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3664,7 +3685,7 @@
     </row>
     <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
@@ -3680,12 +3701,12 @@
         <v>2</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
@@ -3701,12 +3722,12 @@
         <v>2</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3721,7 +3742,7 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -3740,7 +3761,7 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -3759,7 +3780,7 @@
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3774,7 +3795,7 @@
     </row>
     <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3786,12 +3807,12 @@
         <v>2</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -3807,12 +3828,12 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
@@ -3828,12 +3849,12 @@
         <v>1</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
@@ -3849,12 +3870,12 @@
         <v>2</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3869,7 +3890,7 @@
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3884,7 +3905,7 @@
     </row>
     <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -3898,12 +3919,12 @@
         <v>2</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
@@ -3919,12 +3940,12 @@
         <v>2</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
@@ -3940,12 +3961,12 @@
         <v>2</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
@@ -3964,7 +3985,7 @@
     </row>
     <row r="111" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
@@ -3980,12 +4001,12 @@
         <v>2</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
@@ -4001,12 +4022,12 @@
         <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
@@ -4022,12 +4043,12 @@
         <v>2</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4042,7 +4063,7 @@
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
@@ -4058,12 +4079,12 @@
         <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
@@ -4079,12 +4100,44 @@
         <v>2</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I118" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G116">
+  <conditionalFormatting sqref="G5:G118">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
@@ -4099,16 +4152,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D116">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D118">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G116">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G118">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C116">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C118">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F116">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F118">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4135,7 +4188,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G116</xm:sqref>
+          <xm:sqref>G5:G118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="68" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4154,7 +4207,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H116</xm:sqref>
+          <xm:sqref>H5:H118</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="219">
   <si>
     <r>
       <rPr>
@@ -621,9 +621,6 @@
     <t>Revoir la façon de determiner le path (type Voronoi graph ou potentiel field ou probabilistic road map planner ?)</t>
   </si>
   <si>
-    <t>Rechercer des bibliothques Octave pour accroitre performance de l analyse  echo (cf biblio python)</t>
-  </si>
-  <si>
     <t>dans Octave traduire les coordonnees du robot sous forme de matrice (x,y,theta)</t>
   </si>
   <si>
@@ -648,12 +645,6 @@
     <t>Traiter le cas move impossible dans octave</t>
   </si>
   <si>
-    <t>remonter min echo</t>
-  </si>
-  <si>
-    <t>Traiter le cas localisation theorique impossible</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revoir Octave avec un Objet robot </t>
   </si>
   <si>
@@ -675,9 +666,6 @@
     <t>suivant chemin predefini</t>
   </si>
   <si>
-    <t>Developper une fonction franchissement de porte</t>
-  </si>
-  <si>
     <t xml:space="preserve">sur base de scan intensifs completes de mesures directes </t>
   </si>
   <si>
@@ -705,9 +693,6 @@
     <t>Remplacer le servo moteur pour eviter tremblements</t>
   </si>
   <si>
-    <t>Faire releve des pings en approche de portes</t>
-  </si>
-  <si>
     <t>Distinguer echo 0 de echo max</t>
   </si>
   <si>
@@ -775,6 +760,30 @@
   </si>
   <si>
     <t>Utiliser le gyroscope pour affiner le mouvement rectiligne (PID ?)</t>
+  </si>
+  <si>
+    <t>via octave</t>
+  </si>
+  <si>
+    <t>Rechercher des bibliothques Octave pour accroitre performance de l analyse  echo (cf biblio python)</t>
+  </si>
+  <si>
+    <t>reste à valider le cas echo à 0</t>
+  </si>
+  <si>
+    <t>lancer une localisation fine ?</t>
+  </si>
+  <si>
+    <t>Developper une fonction franchissement de passages delicats</t>
+  </si>
+  <si>
+    <t>Faire releve des pings pour localisation fine</t>
+  </si>
+  <si>
+    <t>commencer par approche des portes</t>
+  </si>
+  <si>
+    <t>type porte  &gt;&gt; appliquer des consignes liees à une localisation</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1418,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I118" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I117" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I117">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Différé"/>
+        <filter val="En cours de réalisation"/>
+        <filter val="Non commencée"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1673,10 +1690,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N118"/>
+  <dimension ref="B1:N117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1755,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1749,7 +1766,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1787,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1879,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +1950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -2121,7 +2138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2228,7 +2245,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -2251,7 +2268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
@@ -2272,7 +2289,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
@@ -2293,7 +2310,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
@@ -2316,7 +2333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -2337,7 +2354,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2360,7 +2377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
@@ -2381,7 +2398,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -2404,7 +2421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2427,7 +2444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2448,7 +2465,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>156</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2722,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>162</v>
       </c>
@@ -2751,7 +2768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>83</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
@@ -2866,7 +2883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>107</v>
       </c>
@@ -2954,7 +2971,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>110</v>
       </c>
@@ -2977,7 +2994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>115</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>113</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
@@ -3046,7 +3063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>118</v>
       </c>
@@ -3090,7 +3107,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>120</v>
       </c>
@@ -3113,7 +3130,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>121</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>149</v>
       </c>
@@ -3159,7 +3176,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
@@ -3167,20 +3184,20 @@
         <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H69" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>125</v>
       </c>
@@ -3188,22 +3205,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H70" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>148</v>
       </c>
@@ -3224,7 +3241,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>129</v>
       </c>
@@ -3268,7 +3285,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>131</v>
       </c>
@@ -3291,7 +3308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>135</v>
       </c>
@@ -3299,22 +3316,22 @@
         <v>12</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H75" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>137</v>
       </c>
@@ -3322,22 +3339,22 @@
         <v>12</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H76" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>139</v>
       </c>
@@ -3360,7 +3377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>142</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>144</v>
       </c>
@@ -3430,17 +3447,23 @@
       <c r="C81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="12"/>
+      <c r="G81" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H81" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>150</v>
       </c>
@@ -3481,12 +3504,12 @@
         <v>2</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
@@ -3503,9 +3526,9 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
@@ -3521,12 +3544,12 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
@@ -3545,10 +3568,12 @@
     </row>
     <row r="87" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="12"/>
@@ -3560,7 +3585,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3578,15 +3603,17 @@
         <v>2</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="12"/>
@@ -3594,11 +3621,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -3617,10 +3646,12 @@
     </row>
     <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="12"/>
@@ -3632,7 +3663,7 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -3651,7 +3682,7 @@
     </row>
     <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -3670,22 +3701,28 @@
     </row>
     <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="12"/>
+      <c r="G94" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H94" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I94" s="5"/>
+      <c r="I94" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
@@ -3694,46 +3731,46 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H95" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="7">
-        <v>1</v>
-      </c>
+      <c r="G96" s="12"/>
       <c r="H96" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>187</v>
-      </c>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H97" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -3742,7 +3779,7 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -3761,29 +3798,31 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="G99" s="12"/>
       <c r="H99" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="12"/>
@@ -3791,28 +3830,34 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="12"/>
+      <c r="G101" s="7">
+        <v>1</v>
+      </c>
       <c r="H101" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -3828,12 +3873,12 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
@@ -3849,51 +3894,55 @@
         <v>1</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="G104" s="12"/>
       <c r="H104" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H105" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="12"/>
@@ -3901,30 +3950,34 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H107" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
@@ -3933,137 +3986,139 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="7">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H108" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H109" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>211</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H110" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
-      </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H111" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H112" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="G113" s="12"/>
       <c r="H113" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="12"/>
+      <c r="G114" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H114" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
@@ -4072,45 +4127,43 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="7">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H115" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D116" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="G116" s="12"/>
       <c r="H116" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I116" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="12"/>
@@ -4120,25 +4173,10 @@
       </c>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="13">
-        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I118" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G118">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="G5:G117">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4152,16 +4190,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D118">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D117">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G118">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G117">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C118">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C117">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F118">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F117">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4188,10 +4226,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G118</xm:sqref>
+          <xm:sqref>G5:G117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4207,7 +4245,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H118</xm:sqref>
+          <xm:sqref>H5:H117</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -784,6 +784,32 @@
   </si>
   <si>
     <t>type porte  &gt;&gt; appliquer des consignes liees à une localisation</t>
+  </si>
+  <si>
+    <t>Definir valeur plancher test rotation pour petits angles (le robot touche déjà)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter un test pour detecter blocage en rotation </t>
+  </si>
+  <si>
+    <t>Integrer la notion de consignes dans optimalPath (ex marche arriere sur barre de seuil)</t>
+  </si>
+  <si>
+    <t>Tracer les positions BNO</t>
+  </si>
+  <si>
+    <t>Gyro rotation correction bug</t>
+  </si>
+  <si>
+    <t>1er cas / le robot est presque bloque et avance par petites etapes - &gt; il finit par faire la rotation mais continue (une nouvelle roation ?)
+modulo 360 added to the heading befoe storing in memory
+2eme cas rotation -10 obstacle - un pulse motor puis scan sur la agauche et rotation !</t>
+  </si>
+  <si>
+    <t>Prendre en compte l ecart type des mesures echo lors du testEchoConsistancyVsDB pour focaliser sur les mesures significaies</t>
+  </si>
+  <si>
+    <t>la requete SQL restitue les standard deviation</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I117" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I123" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I123">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Différé"/>
@@ -1690,10 +1716,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N117"/>
+  <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1781,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42944</v>
+        <v>42954</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3981,16 +4007,16 @@
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H108" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>206</v>
@@ -4173,9 +4199,123 @@
       </c>
       <c r="I117" s="5"/>
     </row>
+    <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H118" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H119" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H120" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H122" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G117">
+  <conditionalFormatting sqref="G5:G123">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4190,16 +4330,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D117">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D123">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G117">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G123">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C117">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C123">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F117">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F123">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4226,7 +4366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G117</xm:sqref>
+          <xm:sqref>G5:G123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4245,7 +4385,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H117</xm:sqref>
+          <xm:sqref>H5:H123</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
+    <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -774,9 +774,6 @@
     <t>lancer une localisation fine ?</t>
   </si>
   <si>
-    <t>Developper une fonction franchissement de passages delicats</t>
-  </si>
-  <si>
     <t>Faire releve des pings pour localisation fine</t>
   </si>
   <si>
@@ -810,12 +807,15 @@
   </si>
   <si>
     <t>la requete SQL restitue les standard deviation</t>
+  </si>
+  <si>
+    <t>Developper une fonction franchissement de passages etroits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1250,16 +1250,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="25"/>
       <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="To Do List" pivot="0" count="3">
+    <tableStyle name="To Do List" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="To Do List Pivot" table="0" count="11">
+    <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
       <tableStyleElement type="firstRowStripe" dxfId="18"/>
@@ -1444,8 +1444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I123" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I123" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I123" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Différé"/>
@@ -1455,16 +1455,16 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Tâche" dataDxfId="7"/>
-    <tableColumn id="3" name="Priorité " dataDxfId="6"/>
-    <tableColumn id="4" name="État " dataDxfId="5"/>
-    <tableColumn id="6" name="Date de début " dataDxfId="4"/>
-    <tableColumn id="7" name="Échéance " dataDxfId="3"/>
-    <tableColumn id="5" name="% achevé" dataDxfId="2"/>
-    <tableColumn id="9" name="Terminée/En retard ?" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâche" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorité " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="État " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date de début " dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Échéance " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% achevé" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Terminée/En retard ?" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Notes" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1711,15 +1711,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42954</v>
+        <v>42987</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3824,21 +3824,23 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="12"/>
+      <c r="G99" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H99" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3942,7 +3944,7 @@
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
@@ -3958,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4203,7 @@
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
@@ -4220,7 +4222,7 @@
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
@@ -4239,7 +4241,7 @@
     </row>
     <row r="120" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
@@ -4258,7 +4260,7 @@
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
@@ -4275,7 +4277,7 @@
     </row>
     <row r="122" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
@@ -4291,12 +4293,12 @@
         <v>2</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
@@ -4310,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4330,16 +4332,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D123">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D123" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G123">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G123" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C123">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C123" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F123">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F123" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4394,7 +4396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Developper une fonction franchissement de passages etroits</t>
+  </si>
+  <si>
+    <t>Faire bouger le robot au boot pour calibrer le magnetometre</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1447,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I123" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I123" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I124" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I124" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Différé"/>
@@ -1716,10 +1719,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N123"/>
+  <dimension ref="B1:N124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1784,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42987</v>
+        <v>42996</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -4315,9 +4318,28 @@
         <v>225</v>
       </c>
     </row>
+    <row r="124" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="7">
+        <v>1</v>
+      </c>
+      <c r="H124" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I124" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G123">
+  <conditionalFormatting sqref="G5:G124">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4332,16 +4354,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D123" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D124" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G123" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G124" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C123" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C124" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F123" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F124" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4368,7 +4390,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G123</xm:sqref>
+          <xm:sqref>G5:G124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4387,7 +4409,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H123</xm:sqref>
+          <xm:sqref>H5:H124</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28860" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="245">
   <si>
     <r>
       <rPr>
@@ -303,9 +303,6 @@
     <t>Passer tous les angles en radians dans Octave</t>
   </si>
   <si>
-    <t xml:space="preserve">modifs au fil de l'eau </t>
-  </si>
-  <si>
     <t>valeurs toujours tres faibles ! Non significatives
 re-ecriture du code octave
 reste a valider en reel</t>
@@ -320,9 +317,6 @@
     <t>Localisation initiale: developper un code/logique de deplacement / boucler jusqu’à localisation</t>
   </si>
   <si>
-    <t>une 1ere version DetermineNextMoveToScan qui cherche les zones echos les + eloignes</t>
-  </si>
-  <si>
     <t>POC utilisation d'un gyroscope</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
   </si>
   <si>
     <t>Supprimer les tremblements du servo moteur</t>
-  </si>
-  <si>
-    <t>pistes identifiees (condensateur sur alim, ecrire le code PWM, limiter l amplitude des angles, selectionner des positions plus stables,,,)</t>
   </si>
   <si>
     <t xml:space="preserve">Etudier la possibilite de recalibrer facilement la boussole </t>
@@ -813,14 +804,75 @@
   </si>
   <si>
     <t>Faire bouger le robot au boot pour calibrer le magnetometre</t>
+  </si>
+  <si>
+    <t>re-ecriture sous ApEchoLocalization</t>
+  </si>
+  <si>
+    <t>modifs au fil de l'eau / degre et  radian utilises</t>
+  </si>
+  <si>
+    <t>via routine waitforrobot</t>
+  </si>
+  <si>
+    <t>via ApEchoLocalization</t>
+  </si>
+  <si>
+    <t>apres nobreux essais il suffit de remplacer le servo moteur par un servo metal FT5316M</t>
+  </si>
+  <si>
+    <t>Developper une fonction de test du machine learning echo</t>
+  </si>
+  <si>
+    <t>TestEchoLearningQuality</t>
+  </si>
+  <si>
+    <t>Qualifier machine learning echo via TestEchoLearningQuality</t>
+  </si>
+  <si>
+    <t>Prevoir une fonction verification calibrage de la boussole en (184,184,0)</t>
+  </si>
+  <si>
+    <t>avant test qualite ML echo</t>
+  </si>
+  <si>
+    <t>[apRobot,robot] = ApStartRobotRealmode(flatLogRegMode,plotValue)</t>
+  </si>
+  <si>
+    <t>Developper fonction octave pilotage direct du robot</t>
+  </si>
+  <si>
+    <t>Tester detecteur opitqe sharp 2D150A</t>
+  </si>
+  <si>
+    <t>necessite 15k ohm pullup resistor - detecte a 15cm</t>
+  </si>
+  <si>
+    <t>Tester capteur de choc ST053</t>
+  </si>
+  <si>
+    <t>Tester line follower QTR-1A</t>
+  </si>
+  <si>
+    <t>semble difficilement montable sur le robot  -fonctionne a la main sur pave cuisine - le capteur ne doit pas etre a plus de 6mn de la ligne</t>
+  </si>
+  <si>
+    <t>sur breadboard -detecte bien les chocs - provoque des paasage a low de - 0,1ms</t>
+  </si>
+  <si>
+    <t>Developper un automate et re-ecriture la fonction echo loc</t>
+  </si>
+  <si>
+    <t>Re-ecrire la fonction go to target avec l automate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -954,7 +1006,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1064,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1033,11 +1088,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1253,16 +1308,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="25"/>
       <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="To Do List" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="To Do List" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="To Do List Pivot" table="0" count="11">
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
       <tableStyleElement type="firstRowStripe" dxfId="18"/>
@@ -1312,7 +1367,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1448,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,27 +1502,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I124" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I124" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I133" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I133">
     <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Différé"/>
+      <filters>
         <filter val="En cours de réalisation"/>
         <filter val="Non commencée"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâche" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorité " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="État " dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date de début " dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Échéance " dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% achevé" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Terminée/En retard ?" dataDxfId="1">
+    <tableColumn id="1" name="Tâche" dataDxfId="7"/>
+    <tableColumn id="3" name="Priorité " dataDxfId="6"/>
+    <tableColumn id="4" name="État " dataDxfId="5"/>
+    <tableColumn id="6" name="Date de début " dataDxfId="4"/>
+    <tableColumn id="7" name="Échéance " dataDxfId="3"/>
+    <tableColumn id="5" name="% achevé" dataDxfId="2"/>
+    <tableColumn id="9" name="Terminée/En retard ?" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="10" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1714,15 +1768,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N124"/>
+  <dimension ref="B1:N133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1838,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>42996</v>
+        <v>43180</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1897,16 +1951,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43174</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1953,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1999,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2062,14 +2122,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>33</v>
@@ -2095,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
@@ -2106,22 +2168,22 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2129,16 +2191,16 @@
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H20" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>35</v>
@@ -2187,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2210,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2221,22 +2283,22 @@
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H24" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2255,7 +2317,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
@@ -2263,16 +2325,20 @@
         <v>10</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
       <c r="H26" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -2364,7 +2430,7 @@
     </row>
     <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -2447,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2514,12 +2580,12 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>10</v>
@@ -2535,12 +2601,12 @@
         <v>2</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -2559,32 +2625,32 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H40" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -2602,12 +2668,12 @@
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2625,12 +2691,12 @@
         <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>10</v>
@@ -2646,12 +2712,12 @@
         <v>2</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -2668,9 +2734,9 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>10</v>
@@ -2687,9 +2753,9 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>10</v>
@@ -2706,9 +2772,9 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -2725,9 +2791,9 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>10</v>
@@ -2743,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2753,7 +2819,7 @@
     </row>
     <row r="49" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -2771,18 +2837,18 @@
         <v>1</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2791,15 +2857,15 @@
       </c>
       <c r="H50" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>10</v>
@@ -2817,12 +2883,12 @@
         <v>1</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -2840,35 +2906,35 @@
         <v>1</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -2886,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2909,12 +2975,12 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -2932,12 +2998,12 @@
         <v>1</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>10</v>
@@ -2953,12 +3019,12 @@
         <v>2</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -2976,12 +3042,12 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
@@ -2997,12 +3063,12 @@
         <v>2</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
@@ -3020,12 +3086,12 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -3043,12 +3109,12 @@
         <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -3066,12 +3132,12 @@
         <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>10</v>
@@ -3089,12 +3155,12 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -3112,12 +3178,12 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -3138,7 +3204,7 @@
     </row>
     <row r="66" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -3156,12 +3222,12 @@
         <v>1</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>10</v>
@@ -3179,12 +3245,12 @@
         <v>1</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -3202,12 +3268,12 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -3228,7 +3294,7 @@
     </row>
     <row r="70" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -3246,12 +3312,12 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>10</v>
@@ -3272,7 +3338,7 @@
     </row>
     <row r="72" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>10</v>
@@ -3290,33 +3356,33 @@
         <v>1</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H73" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>15</v>
@@ -3334,12 +3400,12 @@
         <v>1</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -3357,12 +3423,12 @@
         <v>1</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -3380,12 +3446,12 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -3403,12 +3469,12 @@
         <v>1</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -3426,12 +3492,12 @@
         <v>1</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>15</v>
@@ -3449,17 +3515,19 @@
         <v>1</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="12"/>
@@ -3471,7 +3539,7 @@
     </row>
     <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>10</v>
@@ -3482,19 +3550,19 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H81" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -3513,32 +3581,32 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H83" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
@@ -3557,7 +3625,7 @@
     </row>
     <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
@@ -3573,12 +3641,12 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
@@ -3597,7 +3665,7 @@
     </row>
     <row r="87" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
@@ -3614,7 +3682,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3632,12 +3700,12 @@
         <v>2</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
@@ -3651,12 +3719,12 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -3673,9 +3741,9 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
@@ -3692,7 +3760,7 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -3711,7 +3779,7 @@
     </row>
     <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -3728,34 +3796,34 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H94" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -3764,15 +3832,15 @@
       </c>
       <c r="H95" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
@@ -3789,7 +3857,7 @@
     </row>
     <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
@@ -3808,7 +3876,7 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -3827,7 +3895,7 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -3843,12 +3911,12 @@
         <v>2</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
@@ -3862,12 +3930,12 @@
         <v>2</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
@@ -3883,12 +3951,12 @@
         <v>1</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -3904,12 +3972,12 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
@@ -3925,29 +3993,31 @@
         <v>1</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="7">
+        <v>1</v>
+      </c>
       <c r="H104" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
@@ -3963,12 +4033,12 @@
         <v>2</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
@@ -3982,12 +4052,12 @@
         <v>2</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -4003,12 +4073,12 @@
         <v>2</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
@@ -4024,12 +4094,12 @@
         <v>1</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
@@ -4046,30 +4116,30 @@
       </c>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H110" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
@@ -4085,33 +4155,33 @@
         <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H112" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
@@ -4128,7 +4198,7 @@
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
@@ -4144,12 +4214,12 @@
         <v>2</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
@@ -4165,12 +4235,12 @@
         <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -4189,7 +4259,7 @@
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
@@ -4206,7 +4276,7 @@
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
@@ -4225,7 +4295,7 @@
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
@@ -4244,7 +4314,7 @@
     </row>
     <row r="120" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
@@ -4253,7 +4323,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H120" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -4263,7 +4333,7 @@
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
@@ -4278,30 +4348,30 @@
       </c>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H122" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
@@ -4315,12 +4385,12 @@
         <v>2</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
@@ -4337,9 +4407,188 @@
       </c>
       <c r="I124" s="5"/>
     </row>
+    <row r="125" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H125" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="7">
+        <v>1</v>
+      </c>
+      <c r="H128" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H129" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H130" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H131" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H132" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I133" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G124">
+  <conditionalFormatting sqref="G5:G133">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4354,16 +4603,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D124" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D133">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G124" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G133">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C124" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C133">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F124" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F133">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4390,7 +4639,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G124</xm:sqref>
+          <xm:sqref>G5:G133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4409,7 +4658,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H124</xm:sqref>
+          <xm:sqref>H5:H133</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4418,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,28 +4684,28 @@
   <sheetData>
     <row r="1" spans="3:11" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
@@ -5024,7 +5273,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -5135,7 +5384,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -5195,7 +5444,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -5330,7 +5579,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39">
         <v>40</v>
@@ -5441,7 +5690,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="247">
   <si>
     <r>
       <rPr>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>Re-ecrire la fonction go to target avec l automate</t>
+  </si>
+  <si>
+    <t>Corriger defut de soudure sur alim de echo front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detecter suite un petit choc - </t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1508,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I133" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I134" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I134">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1773,10 +1779,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N133"/>
+  <dimension ref="B1:N134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1844,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43180</v>
+        <v>43193</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -4586,9 +4592,28 @@
       </c>
       <c r="I133" s="5"/>
     </row>
+    <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G133">
+  <conditionalFormatting sqref="G5:G134">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4603,16 +4628,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D133">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D134">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G133">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G134">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C133">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C134">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F133">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F134">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4639,7 +4664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G133</xm:sqref>
+          <xm:sqref>G5:G134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4658,7 +4683,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H133</xm:sqref>
+          <xm:sqref>H5:H134</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="249">
   <si>
     <r>
       <rPr>
@@ -866,10 +866,16 @@
     <t>Re-ecrire la fonction go to target avec l automate</t>
   </si>
   <si>
-    <t>Corriger defut de soudure sur alim de echo front</t>
-  </si>
-  <si>
     <t xml:space="preserve">detecter suite un petit choc - </t>
+  </si>
+  <si>
+    <t>Corriger defaut de soudure sur alim de echo front</t>
+  </si>
+  <si>
+    <t>Migrer vers deep learning tensor flow</t>
+  </si>
+  <si>
+    <t>Modifier photo carto et calculette V2 vers V3</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1379,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1460,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,8 +1514,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I134" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I136" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I136">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1779,10 +1785,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N134"/>
+  <dimension ref="B1:N136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1850,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43193</v>
+        <v>43230</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -4594,7 +4600,7 @@
     </row>
     <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4608,12 +4614,50 @@
         <v>2</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>246</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H135" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H136" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I136" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G134">
+  <conditionalFormatting sqref="G5:G136">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4628,16 +4672,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D134">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D136">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G134">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G136">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C134">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C136">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F134">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F136">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4664,7 +4708,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G134</xm:sqref>
+          <xm:sqref>G5:G136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4683,7 +4727,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H134</xm:sqref>
+          <xm:sqref>H5:H136</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="254">
   <si>
     <r>
       <rPr>
@@ -876,6 +876,21 @@
   </si>
   <si>
     <t>Modifier photo carto et calculette V2 vers V3</t>
+  </si>
+  <si>
+    <t>Etudier possibilite reduire conso ATMega via sleep duree dynamique fonction des actions e cours</t>
+  </si>
+  <si>
+    <t>Ajouter une LED 'toDo' au robot</t>
+  </si>
+  <si>
+    <t>cf localisationRobot22052018-2 16:08:08 sec</t>
+  </si>
+  <si>
+    <t>Debug re-send frame by server after 0,15 sec delay and robot ignored both</t>
+  </si>
+  <si>
+    <t>agir sur delay ne changera pas grand chose &gt;&gt; il faudrait passer en sleep mode (a voir pour atmega, nano et ESP8266)</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1394,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1475,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I136" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I139" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I139">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1785,10 +1800,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N136"/>
+  <dimension ref="B1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1865,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43230</v>
+        <v>43242</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -4604,14 +4619,16 @@
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
-      <c r="G134" s="12"/>
+      <c r="G134" s="7">
+        <v>1</v>
+      </c>
       <c r="H134" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>245</v>
@@ -4655,9 +4672,66 @@
       </c>
       <c r="I136" s="5"/>
     </row>
+    <row r="137" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H139" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G136">
+  <conditionalFormatting sqref="G5:G139">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4672,16 +4746,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D136">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D139">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G136">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G139">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C136">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C139">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F136">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F139">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4708,7 +4782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G136</xm:sqref>
+          <xm:sqref>G5:G139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4727,7 +4801,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H136</xm:sqref>
+          <xm:sqref>H5:H139</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
     <sheet name="PlanValidationGyroscope" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="277">
   <si>
     <r>
       <rPr>
@@ -857,9 +858,6 @@
     <t>semble difficilement montable sur le robot  -fonctionne a la main sur pave cuisine - le capteur ne doit pas etre a plus de 6mn de la ligne</t>
   </si>
   <si>
-    <t>sur breadboard -detecte bien les chocs - provoque des paasage a low de - 0,1ms</t>
-  </si>
-  <si>
     <t>Developper un automate et re-ecriture la fonction echo loc</t>
   </si>
   <si>
@@ -890,7 +888,80 @@
     <t>Debug re-send frame by server after 0,15 sec delay and robot ignored both</t>
   </si>
   <si>
-    <t>agir sur delay ne changera pas grand chose &gt;&gt; il faudrait passer en sleep mode (a voir pour atmega, nano et ESP8266)</t>
+    <t>Mettre une contrôle de non blocage en rotation</t>
+  </si>
+  <si>
+    <t>suite retour experience il faut qq chose qui verifie que au moins une roue tourne</t>
+  </si>
+  <si>
+    <t>commence essentiellement re-copie du code precedent - a suivre par developpement base sur automate</t>
+  </si>
+  <si>
+    <t>Si Sleep ATMega positif faire idem pour la Nano</t>
+  </si>
+  <si>
+    <t>sur breadboard -detecte bien les chocs - provoque des passage a low de - 0,1ms</t>
+  </si>
+  <si>
+    <t>agir sur delay ne changera pas grand chose &gt;&gt; il faudrait passer en sleep mode (a voir pour atmega, nano et ESP8266)
+maquette en cours avec sleep mode &gt;&gt; un atmega alimente en 5v sleep mode led13 off: 0,030A VS 0,046A loop +led13on</t>
+  </si>
+  <si>
+    <t>une 1ere mesure donne 0,27A sur alim batterie 12v !</t>
+  </si>
+  <si>
+    <t>Construire un plan de test de conso electrique du robot</t>
+  </si>
+  <si>
+    <t>peu d interet compte tenu de la faible conso nano vs robot</t>
+  </si>
+  <si>
+    <t>Remplacer la 2eme batterie HS</t>
+  </si>
+  <si>
+    <t>Passage aux piles rechargeables avec chargeur intelligent-</t>
+  </si>
+  <si>
+    <t>Ajouter de l'alea dans les moves ehcoLocalization</t>
+  </si>
+  <si>
+    <t>eviter les A/R</t>
+  </si>
+  <si>
+    <t>Ajouter heure sur  les plots</t>
+  </si>
+  <si>
+    <t>Corriger NO en (211,84) et (212,50)  dans zone liste (sans tabouret)</t>
+  </si>
+  <si>
+    <t>Modifier ApCheckStraightMovePossibility pour prendre en compte les zones entre 0 et 50</t>
+  </si>
+  <si>
+    <t>ne pas aller tout droit si zone diff de 0</t>
+  </si>
+  <si>
+    <t>Debug detection obstacle</t>
+  </si>
+  <si>
+    <t>ne fonctionne plus en marche arriere et de remonte plus end move apres plusieurs retry</t>
+  </si>
+  <si>
+    <t>Ameliorer northalign en ajout delta dans le sens de rotation pour  compenser la tolerance</t>
+  </si>
+  <si>
+    <t>NO toujours en dessous de la cible suivant sens rotation</t>
+  </si>
+  <si>
+    <t>Ajuster dynamiquement la duree du pulse</t>
+  </si>
+  <si>
+    <t>des fois trop fort en rotation (vas et vient) souvent trop faible en NO align</t>
+  </si>
+  <si>
+    <t>Echo localisation - retenir un distance entre le determine et le theorique</t>
+  </si>
+  <si>
+    <t>interet a checker avec les data reelles / tests en cours avec 1/4 det 3/4 expect</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1465,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1546,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,8 +1600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I139" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I151" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I151">
     <filterColumn colId="2">
       <filters>
         <filter val="En cours de réalisation"/>
@@ -1800,10 +1871,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N139"/>
+  <dimension ref="B1:N151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1936,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43242</v>
+        <v>43311</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -4553,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4579,7 +4650,7 @@
     </row>
     <row r="132" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
@@ -4598,24 +4669,28 @@
     </row>
     <row r="133" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
-      <c r="G133" s="12"/>
+      <c r="G133" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H133" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I133" s="5"/>
+      <c r="I133" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4631,12 +4706,12 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
@@ -4655,30 +4730,30 @@
     </row>
     <row r="136" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
       <c r="G136" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H136" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
@@ -4687,30 +4762,32 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I137" s="5" t="s">
-        <v>253</v>
+      <c r="I137" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
-      <c r="G138" s="12"/>
+      <c r="G138" s="7">
+        <v>1</v>
+      </c>
       <c r="H138" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
@@ -4726,12 +4803,224 @@
         <v>2</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G139">
+  <conditionalFormatting sqref="G5:G151">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -4746,16 +5035,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D139">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D151">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G139">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G151">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C139">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C151">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F139">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F151">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4782,7 +5071,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G139</xm:sqref>
+          <xm:sqref>G5:G151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
@@ -4801,7 +5090,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H139</xm:sqref>
+          <xm:sqref>H5:H151</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4814,10 +5103,10 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5839,6 +6128,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -864,9 +864,6 @@
     <t>Re-ecrire la fonction go to target avec l automate</t>
   </si>
   <si>
-    <t xml:space="preserve">detecter suite un petit choc - </t>
-  </si>
-  <si>
     <t>Corriger defaut de soudure sur alim de echo front</t>
   </si>
   <si>
@@ -925,9 +922,6 @@
     <t>Ajouter de l'alea dans les moves ehcoLocalization</t>
   </si>
   <si>
-    <t>eviter les A/R</t>
-  </si>
-  <si>
     <t>Ajouter heure sur  les plots</t>
   </si>
   <si>
@@ -943,9 +937,6 @@
     <t>Debug detection obstacle</t>
   </si>
   <si>
-    <t>ne fonctionne plus en marche arriere et de remonte plus end move apres plusieurs retry</t>
-  </si>
-  <si>
     <t>Ameliorer northalign en ajout delta dans le sens de rotation pour  compenser la tolerance</t>
   </si>
   <si>
@@ -962,6 +953,20 @@
   </si>
   <si>
     <t>interet a checker avec les data reelles / tests en cours avec 1/4 det 3/4 expect</t>
+  </si>
+  <si>
+    <t>ne fonctionne plus en marche arriere et de remonte plus end move apres plusieurs retry
+marche arriere ok - endmove a tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>eviter les A/R
+fait sur la longueur du deplamcemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detecte suite un petit choc - </t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1470,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1551,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,8 +1878,8 @@
   </sheetPr>
   <dimension ref="B1:N151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1941,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43311</v>
+        <v>43324</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2016,7 +2021,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2024,24 +2029,24 @@
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9">
         <v>42579</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H9" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2049,18 +2054,18 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9">
         <v>43174</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>225</v>
@@ -2235,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2243,16 +2248,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H18" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>150</v>
@@ -2746,7 +2751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
@@ -2754,16 +2759,16 @@
         <v>12</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H41" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>228</v>
@@ -3279,7 +3284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>116</v>
       </c>
@@ -3287,16 +3292,16 @@
         <v>12</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H65" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5"/>
     </row>
@@ -3635,7 +3640,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>144</v>
       </c>
@@ -3643,16 +3648,16 @@
         <v>10</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H81" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>208</v>
@@ -3778,7 +3783,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>165</v>
       </c>
@@ -3786,16 +3791,16 @@
         <v>12</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H88" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>210</v>
@@ -3820,22 +3825,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H90" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="5"/>
     </row>
@@ -3856,22 +3861,22 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H92" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5"/>
     </row>
@@ -3953,22 +3958,22 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H97" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="5"/>
     </row>
@@ -4294,22 +4299,22 @@
       </c>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H114" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>199</v>
@@ -4505,41 +4510,43 @@
       </c>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H125" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="12"/>
+      <c r="G126" s="7">
+        <v>1</v>
+      </c>
       <c r="H126" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="5"/>
     </row>
@@ -4564,7 +4571,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>236</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,22 +4655,22 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>242</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
       <c r="G132" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H132" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" s="5"/>
     </row>
@@ -4685,12 +4692,12 @@
         <v>2</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4706,31 +4713,31 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H135" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
@@ -4749,7 +4756,7 @@
     </row>
     <row r="137" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
@@ -4763,12 +4770,12 @@
         <v>2</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
@@ -4787,7 +4794,7 @@
     </row>
     <row r="139" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
@@ -4803,12 +4810,12 @@
         <v>2</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
@@ -4822,12 +4829,12 @@
         <v>2</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
@@ -4841,12 +4848,12 @@
         <v>2</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -4860,50 +4867,54 @@
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
-      <c r="G143" s="12"/>
+      <c r="G143" s="7">
+        <v>1</v>
+      </c>
       <c r="H143" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="12"/>
+      <c r="G144" s="7">
+        <v>1</v>
+      </c>
       <c r="H144" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4916,9 +4927,9 @@
       </c>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4931,9 +4942,9 @@
       </c>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4945,29 +4956,33 @@
         <v>2</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
-      <c r="G148" s="12"/>
+      <c r="G148" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="H148" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I148" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4979,12 +4994,12 @@
         <v>2</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4996,12 +5011,12 @@
         <v>2</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
@@ -5015,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -15,11 +15,12 @@
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="291">
   <si>
     <r>
       <rPr>
@@ -900,10 +901,6 @@
     <t>sur breadboard -detecte bien les chocs - provoque des passage a low de - 0,1ms</t>
   </si>
   <si>
-    <t>agir sur delay ne changera pas grand chose &gt;&gt; il faudrait passer en sleep mode (a voir pour atmega, nano et ESP8266)
-maquette en cours avec sleep mode &gt;&gt; un atmega alimente en 5v sleep mode led13 off: 0,030A VS 0,046A loop +led13on</t>
-  </si>
-  <si>
     <t>une 1ere mesure donne 0,27A sur alim batterie 12v !</t>
   </si>
   <si>
@@ -950,9 +947,6 @@
   </si>
   <si>
     <t>Echo localisation - retenir un distance entre le determine et le theorique</t>
-  </si>
-  <si>
-    <t>interet a checker avec les data reelles / tests en cours avec 1/4 det 3/4 expect</t>
   </si>
   <si>
     <t>ne fonctionne plus en marche arriere et de remonte plus end move apres plusieurs retry
@@ -967,6 +961,55 @@
   </si>
   <si>
     <t xml:space="preserve">detecte suite un petit choc - </t>
+  </si>
+  <si>
+    <t>Abandonnée</t>
+  </si>
+  <si>
+    <t>interet a checker avec les data reelles / tests en cours avec 1/4 det 3/4 expect &gt;&gt; fausse la logique des particules</t>
+  </si>
+  <si>
+    <t>agir sur delay ne changera pas grand chose &gt;&gt; il faudrait passer en sleep mode (a voir pour atmega, nano et ESP8266)
+maquette en cours avec sleep mode &gt;&gt; un atmega alimente en 5v sleep mode led13 off: 0,030A VS 0,046A loop +led13on 
+gain possible avec sleep AtMega et diodes seulement  -13%  au total (-35% sur conso atmega)</t>
+  </si>
+  <si>
+    <t>Developper un outils de qualification des predictions</t>
+  </si>
+  <si>
+    <t>Qualifier les predictions sur toute la surface et actualiser en consequence le deep learning</t>
+  </si>
+  <si>
+    <t>en complement de deep learning ? 
+En remplacement du test echo lors des moves ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudier potentiel graphique de "Robot Localization and Map Construction Using Sonar Data"  project ( http://rossum.sourceforge.net/ ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudier potentiel localisation de "Robot Localization and Map Construction Using Sonar Data"  project ( http://rossum.sourceforge.net/ ) </t>
+  </si>
+  <si>
+    <t>fait une representation graphique de l espace Etablir une carto a partir de la bd des scans 
+avec le orientations 0,90,180  &gt; montre les "aberations" !  &gt;&gt; idee de bouger legerement le robot lors des scans d apprentissage</t>
+  </si>
+  <si>
+    <t>Etudier utilisation de atan2 a la place de atan pour garantir une valeur entre -pi et +pi</t>
+  </si>
+  <si>
+    <t>Revoir ecriture odometrie robot suivant modele calcul Mooc mobilerobots</t>
+  </si>
+  <si>
+    <t>cf: C:\Users\jean\Documents\MoocMobileRobots\Glue_lecture_2_slides  slide12</t>
+  </si>
+  <si>
+    <t>Arrondir les angles de la planche du robot</t>
+  </si>
+  <si>
+    <t>une couche adhesif sur le palier</t>
+  </si>
+  <si>
+    <t>Ajuster jeu engrenage moteur gauche</t>
   </si>
 </sst>
 </file>
@@ -1443,9 +1486,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1470,7 +1510,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1591,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,15 +1645,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I151" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I151">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="En cours de réalisation"/>
-        <filter val="Non commencée"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I159" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I159"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1876,10 +1909,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N151"/>
+  <dimension ref="B1:N164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1974,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43324</v>
+        <v>43418</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1952,7 +1985,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +2006,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1996,7 +2029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2021,7 +2054,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2046,7 +2079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2071,7 +2104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -2142,7 +2175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2192,7 +2225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2319,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2309,7 +2342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -2332,7 +2365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2378,7 +2411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2409,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2420,7 +2453,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
@@ -2443,7 +2476,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
@@ -2487,7 +2520,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
@@ -2508,7 +2541,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2552,7 +2585,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2575,7 +2608,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
@@ -2596,7 +2629,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -2619,7 +2652,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2642,7 +2675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2663,7 +2696,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -2686,7 +2719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>74</v>
       </c>
@@ -2694,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2707,7 +2740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>153</v>
       </c>
@@ -2728,7 +2761,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
@@ -2751,7 +2784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2807,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>66</v>
       </c>
@@ -2797,7 +2830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>67</v>
       </c>
@@ -2805,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2818,7 +2851,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>68</v>
       </c>
@@ -2826,7 +2859,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -2837,7 +2870,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
@@ -2856,7 +2889,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>70</v>
       </c>
@@ -2875,7 +2908,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2894,7 +2927,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>72</v>
       </c>
@@ -2920,7 +2953,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>159</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>75</v>
       </c>
@@ -2966,7 +2999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
@@ -2989,7 +3022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -3012,7 +3045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3035,7 +3068,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3058,7 +3091,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3081,7 +3114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>104</v>
       </c>
@@ -3148,7 +3181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>106</v>
       </c>
@@ -3169,7 +3202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>107</v>
       </c>
@@ -3192,7 +3225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>112</v>
       </c>
@@ -3215,7 +3248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>110</v>
       </c>
@@ -3238,7 +3271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>113</v>
       </c>
@@ -3261,7 +3294,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>115</v>
       </c>
@@ -3284,7 +3317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>116</v>
       </c>
@@ -3305,7 +3338,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>117</v>
       </c>
@@ -3328,7 +3361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>118</v>
       </c>
@@ -3351,7 +3384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>146</v>
       </c>
@@ -3374,7 +3407,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>125</v>
       </c>
@@ -3395,7 +3428,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>122</v>
       </c>
@@ -3418,7 +3451,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>145</v>
       </c>
@@ -3439,7 +3472,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>126</v>
       </c>
@@ -3462,7 +3495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>127</v>
       </c>
@@ -3483,7 +3516,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>128</v>
       </c>
@@ -3506,7 +3539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>132</v>
       </c>
@@ -3529,7 +3562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>134</v>
       </c>
@@ -3552,7 +3585,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
@@ -3575,7 +3608,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>139</v>
       </c>
@@ -3598,7 +3631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>141</v>
       </c>
@@ -3640,7 +3673,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>144</v>
       </c>
@@ -3663,7 +3696,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>147</v>
       </c>
@@ -3684,7 +3717,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>160</v>
       </c>
@@ -3726,7 +3759,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>161</v>
       </c>
@@ -3783,7 +3816,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>165</v>
       </c>
@@ -3825,7 +3858,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>164</v>
       </c>
@@ -3844,7 +3877,7 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>167</v>
       </c>
@@ -3861,7 +3894,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>166</v>
       </c>
@@ -3899,7 +3932,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>172</v>
       </c>
@@ -3920,7 +3953,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>169</v>
       </c>
@@ -3941,7 +3974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>173</v>
       </c>
@@ -3958,7 +3991,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>170</v>
       </c>
@@ -4036,7 +4069,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>178</v>
       </c>
@@ -4057,7 +4090,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>181</v>
       </c>
@@ -4078,7 +4111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>183</v>
       </c>
@@ -4099,7 +4132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>184</v>
       </c>
@@ -4139,7 +4172,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>185</v>
       </c>
@@ -4179,7 +4212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>188</v>
       </c>
@@ -4200,7 +4233,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>189</v>
       </c>
@@ -4219,7 +4252,7 @@
       </c>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>190</v>
       </c>
@@ -4240,7 +4273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>191</v>
       </c>
@@ -4261,7 +4294,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>193</v>
       </c>
@@ -4299,7 +4332,7 @@
       </c>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>198</v>
       </c>
@@ -4451,7 +4484,7 @@
       </c>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>219</v>
       </c>
@@ -4491,7 +4524,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>224</v>
       </c>
@@ -4510,7 +4543,7 @@
       </c>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>230</v>
       </c>
@@ -4531,7 +4564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>232</v>
       </c>
@@ -4558,20 +4591,22 @@
         <v>15</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="12"/>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
       <c r="H127" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>236</v>
       </c>
@@ -4655,7 +4690,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>242</v>
       </c>
@@ -4695,7 +4730,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>244</v>
       </c>
@@ -4713,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>245</v>
       </c>
@@ -4735,7 +4770,7 @@
       </c>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>246</v>
       </c>
@@ -4764,16 +4799,18 @@
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="12"/>
+      <c r="G137" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H137" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>248</v>
       </c>
@@ -4798,16 +4835,16 @@
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H139" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>249</v>
@@ -4832,7 +4869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>254</v>
       </c>
@@ -4848,12 +4885,12 @@
         <v>2</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -4861,18 +4898,20 @@
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
-      <c r="G142" s="12"/>
+      <c r="G142" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H142" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
@@ -4888,12 +4927,12 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
@@ -4909,12 +4948,12 @@
         <v>1</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4927,9 +4966,9 @@
       </c>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4942,9 +4981,9 @@
       </c>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4956,12 +4995,12 @@
         <v>2</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
@@ -4970,19 +5009,19 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H148" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4994,12 +5033,12 @@
         <v>2</v>
       </c>
       <c r="I149" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5011,16 +5050,16 @@
         <v>2</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
@@ -5030,13 +5069,173 @@
         <v>2</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>273</v>
-      </c>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="7">
+        <v>1</v>
+      </c>
+      <c r="H152" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="7">
+        <v>1</v>
+      </c>
+      <c r="H154" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="7">
+        <v>0</v>
+      </c>
+      <c r="H155" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="7">
+        <v>1</v>
+      </c>
+      <c r="H158" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="7">
+        <v>1</v>
+      </c>
+      <c r="H159" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G151">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="G5:G159">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5049,17 +5248,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G155">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{252EEE29-AC71-49F3-8FC5-BE692677DD6B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E6169541-77B0-4BE3-BA7D-380634C17BC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G157:G159 G164">
+    <cfRule type="dataBar" priority="93">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FAD6128-8337-4C28-AEB6-70E0D86C67C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D151">
-      <formula1>"Non commencée,En cours de réalisation, Différé, Terminée"</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D159">
+      <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G151">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G159">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C151">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C159">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F151">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F159">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5086,10 +5327,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G151</xm:sqref>
+          <xm:sqref>G5:G159</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="71" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G155</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E6169541-77B0-4BE3-BA7D-380634C17BC5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G156</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FAD6128-8337-4C28-AEB6-70E0D86C67C3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G157:G159 G164</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="81" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5105,7 +5382,64 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H151</xm:sqref>
+          <xm:sqref>H5:H159</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H155</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{ABE7293A-00AB-433D-BAE5-2F677E14DCE5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H156</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="96" id="{4D76F8EC-1259-4416-B80E-7B7962EBB216}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H164 H157:H159</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5118,7 +5452,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10"/>

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -15,12 +15,11 @@
     <definedName name="Titres_Imprimer" localSheetId="0">'Liste de tâches'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="292">
   <si>
     <r>
       <rPr>
@@ -1010,6 +1009,9 @@
   </si>
   <si>
     <t>Ajuster jeu engrenage moteur gauche</t>
+  </si>
+  <si>
+    <t>Lancement automatique + tracefile de tensorflow</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1512,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1593,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,8 +1647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I159" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I160" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I160"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1912,7 +1914,7 @@
   <dimension ref="B1:N164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -5146,7 +5148,7 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" s="14" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5221,6 +5223,25 @@
       <c r="I159" s="5" t="s">
         <v>289</v>
       </c>
+    </row>
+    <row r="160" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="7">
+        <v>1</v>
+      </c>
+      <c r="H160" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I160" s="5"/>
     </row>
     <row r="164" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
@@ -5234,7 +5255,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G159">
+  <conditionalFormatting sqref="G5:G160">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -5291,16 +5312,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D159">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D160">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G159">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G160">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C159">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C160">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F159">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F160">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5327,7 +5348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G159</xm:sqref>
+          <xm:sqref>G5:G160</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
@@ -5382,7 +5403,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H159</xm:sqref>
+          <xm:sqref>H5:H160</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="294">
   <si>
     <r>
       <rPr>
@@ -1012,6 +1012,12 @@
   </si>
   <si>
     <t>Lancement automatique + tracefile de tensorflow</t>
+  </si>
+  <si>
+    <t>Utiliser les structures Octave dans Automaton</t>
+  </si>
+  <si>
+    <t>ex: state=struct("main","initial","localization","notLocalized","action","atRest")</t>
   </si>
 </sst>
 </file>
@@ -1647,8 +1653,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I160" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I161" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I161">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Différé"/>
+        <filter val="En cours de réalisation"/>
+        <filter val="Non commencée"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Tâche" dataDxfId="7"/>
     <tableColumn id="3" name="Priorité " dataDxfId="6"/>
@@ -1913,8 +1927,8 @@
   </sheetPr>
   <dimension ref="B1:N164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1990,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43436</v>
+        <v>43456</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1987,7 +2001,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -2008,7 +2022,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2070,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2081,7 +2095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2227,7 +2241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2298,7 +2312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
@@ -2321,7 +2335,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2344,7 +2358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -2367,7 +2381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2436,7 +2450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2469,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
@@ -2478,7 +2492,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -2501,7 +2515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
@@ -2522,7 +2536,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
@@ -2543,7 +2557,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2587,7 +2601,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
@@ -2610,7 +2624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2645,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
@@ -2677,7 +2691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2698,7 +2712,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +2735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>74</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>153</v>
       </c>
@@ -2763,7 +2777,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>66</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>67</v>
       </c>
@@ -2853,7 +2867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>68</v>
       </c>
@@ -2899,11 +2913,15 @@
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E46" s="9">
+        <v>43449</v>
+      </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H46" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -2955,7 +2973,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>159</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>75</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -3047,7 +3065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3116,7 +3134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
@@ -3160,7 +3178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>107</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>112</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>110</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>113</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>115</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>116</v>
       </c>
@@ -3340,7 +3358,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>117</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>118</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>146</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>125</v>
       </c>
@@ -3430,7 +3448,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>122</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>145</v>
       </c>
@@ -3474,7 +3492,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>126</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>127</v>
       </c>
@@ -3518,7 +3536,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>128</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>132</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>134</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>139</v>
       </c>
@@ -3633,7 +3651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>141</v>
       </c>
@@ -3675,7 +3693,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>144</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>147</v>
       </c>
@@ -3719,7 +3737,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>160</v>
       </c>
@@ -3761,7 +3779,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>161</v>
       </c>
@@ -3818,7 +3836,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>165</v>
       </c>
@@ -3860,7 +3878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>164</v>
       </c>
@@ -3896,7 +3914,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>166</v>
       </c>
@@ -3934,7 +3952,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>172</v>
       </c>
@@ -3955,7 +3973,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>169</v>
       </c>
@@ -3993,7 +4011,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>170</v>
       </c>
@@ -4071,7 +4089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>178</v>
       </c>
@@ -4092,7 +4110,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>181</v>
       </c>
@@ -4113,7 +4131,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>183</v>
       </c>
@@ -4134,7 +4152,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>184</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>188</v>
       </c>
@@ -4235,7 +4253,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>189</v>
       </c>
@@ -4254,7 +4272,7 @@
       </c>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>190</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>191</v>
       </c>
@@ -4296,7 +4314,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>193</v>
       </c>
@@ -4334,7 +4352,7 @@
       </c>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>198</v>
       </c>
@@ -4486,7 +4504,7 @@
       </c>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>219</v>
       </c>
@@ -4526,7 +4544,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>224</v>
       </c>
@@ -4545,7 +4563,7 @@
       </c>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>230</v>
       </c>
@@ -4566,7 +4584,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>232</v>
       </c>
@@ -4585,7 +4603,7 @@
       </c>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>233</v>
       </c>
@@ -4608,7 +4626,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>236</v>
       </c>
@@ -4692,7 +4710,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>242</v>
       </c>
@@ -4732,7 +4750,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>244</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>245</v>
       </c>
@@ -4772,7 +4790,7 @@
       </c>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>246</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>248</v>
       </c>
@@ -4831,7 +4849,7 @@
       </c>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>250</v>
       </c>
@@ -4911,7 +4929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>259</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>261</v>
       </c>
@@ -4958,10 +4976,14 @@
         <v>262</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="12"/>
+      <c r="G145" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H145" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -4973,7 +4995,9 @@
         <v>263</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
       <c r="G146" s="12"/>
@@ -4988,7 +5012,9 @@
         <v>264</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
       <c r="G147" s="12"/>
@@ -5021,12 +5047,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="12"/>
@@ -5043,7 +5071,9 @@
         <v>269</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="12"/>
@@ -5055,7 +5085,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>271</v>
       </c>
@@ -5074,7 +5104,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>279</v>
       </c>
@@ -5110,7 +5140,7 @@
       </c>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>282</v>
       </c>
@@ -5157,7 +5187,9 @@
         <v>285</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="7"/>
@@ -5172,7 +5204,9 @@
         <v>286</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="7"/>
@@ -5184,7 +5218,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
         <v>288</v>
       </c>
@@ -5203,7 +5237,7 @@
       </c>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>290</v>
       </c>
@@ -5224,7 +5258,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>291</v>
       </c>
@@ -5241,7 +5275,26 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>1</v>
       </c>
-      <c r="I160" s="5"/>
+      <c r="I160" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I161" s="5"/>
     </row>
     <row r="164" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
@@ -5255,7 +5308,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G160">
+  <conditionalFormatting sqref="G5:G161">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -5312,16 +5365,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D160">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D161">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G160">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G161">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C160">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C161">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F160">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F161">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5348,7 +5401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G160</xm:sqref>
+          <xm:sqref>G5:G161</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
@@ -5403,7 +5456,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H160</xm:sqref>
+          <xm:sqref>H5:H161</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -843,9 +843,6 @@
     <t>Developper fonction octave pilotage direct du robot</t>
   </si>
   <si>
-    <t>Tester detecteur opitqe sharp 2D150A</t>
-  </si>
-  <si>
     <t>necessite 15k ohm pullup resistor - detecte a 15cm</t>
   </si>
   <si>
@@ -1018,6 +1015,9 @@
   </si>
   <si>
     <t>ex: state=struct("main","initial","localization","notLocalized","action","atRest")</t>
+  </si>
+  <si>
+    <t>Tester detecteur optiqe sharp 2D150A</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,8 +1927,8 @@
   </sheetPr>
   <dimension ref="B1:N164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43456</v>
+        <v>43483</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2854,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2875,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="129" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
@@ -4665,12 +4665,12 @@
         <v>2</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
@@ -4686,12 +4686,12 @@
         <v>2</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
@@ -4707,12 +4707,12 @@
         <v>2</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
@@ -4731,7 +4731,7 @@
     </row>
     <row r="133" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
@@ -4747,12 +4747,12 @@
         <v>2</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4768,12 +4768,12 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
@@ -4792,7 +4792,7 @@
     </row>
     <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
@@ -4811,7 +4811,7 @@
     </row>
     <row r="137" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
@@ -4827,12 +4827,12 @@
         <v>2</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
@@ -4851,7 +4851,7 @@
     </row>
     <row r="139" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
@@ -4867,12 +4867,12 @@
         <v>1</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
@@ -4886,12 +4886,12 @@
         <v>2</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
@@ -4905,12 +4905,12 @@
         <v>2</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -4926,12 +4926,12 @@
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
@@ -4947,12 +4947,12 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
@@ -4968,12 +4968,12 @@
         <v>1</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
@@ -4992,7 +4992,7 @@
     </row>
     <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
@@ -5009,7 +5009,7 @@
     </row>
     <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
@@ -5023,12 +5023,12 @@
         <v>2</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
@@ -5037,19 +5037,19 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H148" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
@@ -5063,12 +5063,12 @@
         <v>2</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
@@ -5082,16 +5082,16 @@
         <v>2</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
@@ -5101,12 +5101,12 @@
         <v>2</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="153" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
@@ -5142,7 +5142,7 @@
     </row>
     <row r="154" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
@@ -5158,12 +5158,12 @@
         <v>1</v>
       </c>
       <c r="I154" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
@@ -5179,12 +5179,12 @@
         <v>2</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
@@ -5201,7 +5201,7 @@
     </row>
     <row r="157" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
@@ -5215,12 +5215,12 @@
         <v>2</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
@@ -5239,7 +5239,7 @@
     </row>
     <row r="159" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
@@ -5255,12 +5255,12 @@
         <v>1</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
@@ -5276,12 +5276,12 @@
         <v>1</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="303">
   <si>
     <r>
       <rPr>
@@ -751,9 +751,6 @@
     <t>Developper une application de supervision basee sur les statistiques</t>
   </si>
   <si>
-    <t>Utiliser le gyroscope pour affiner le mouvement rectiligne (PID ?)</t>
-  </si>
-  <si>
     <t>via octave</t>
   </si>
   <si>
@@ -1018,6 +1015,36 @@
   </si>
   <si>
     <t>Tester detecteur optiqe sharp 2D150A</t>
+  </si>
+  <si>
+    <t>Developper un outil restituant le format "beam" du SRF05</t>
+  </si>
+  <si>
+    <t>Refaire scan du couloir</t>
+  </si>
+  <si>
+    <t>Utiliser le gyroscope pour affiner le mouvement rectiligne avec PID</t>
+  </si>
+  <si>
+    <t>moteurs controlés via PID sur base encodeurs - tests concluants sur le gain en  précision</t>
+  </si>
+  <si>
+    <t>Developper une fonction simulation "goto" sur la base du Mooc mobilerobots</t>
+  </si>
+  <si>
+    <t>Revoir la création de particules pour prendre en compte la probabilité dynamiquement calculéee</t>
+  </si>
+  <si>
+    <t>Developper une fonction hard "goto" sur la base du Mooc mobilerobots</t>
+  </si>
+  <si>
+    <t>pour restituer angle en fonction de la distance mesurée</t>
+  </si>
+  <si>
+    <t>octave ToolSRF05BeamWidth(distance)</t>
+  </si>
+  <si>
+    <t>TestGoToGoal2Wheels(apRobot,robot) prend en compte le rayon de bracage du robot physique</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1545,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1626,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,8 +1680,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I161" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I166" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I166">
     <filterColumn colId="2">
       <filters>
         <filter val="Différé"/>
@@ -1925,10 +1952,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N164"/>
+  <dimension ref="B1:N166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,7 +2017,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43483</v>
+        <v>43504</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2117,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2820,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2854,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2875,7 +2902,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3085,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3713,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3762,7 +3789,7 @@
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
@@ -3856,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,7 +4078,7 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -4067,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,7 +4200,7 @@
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
@@ -4189,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,24 +4442,30 @@
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="12"/>
+      <c r="F117" s="9">
+        <v>43504</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1</v>
+      </c>
       <c r="H117" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I117" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
@@ -4451,7 +4484,7 @@
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
@@ -4470,7 +4503,7 @@
     </row>
     <row r="120" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
@@ -4489,7 +4522,7 @@
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
@@ -4506,7 +4539,7 @@
     </row>
     <row r="122" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
@@ -4522,12 +4555,12 @@
         <v>1</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
@@ -4541,12 +4574,12 @@
         <v>2</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
@@ -4565,7 +4598,7 @@
     </row>
     <row r="125" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
@@ -4581,12 +4614,12 @@
         <v>1</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
@@ -4605,7 +4638,7 @@
     </row>
     <row r="127" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>15</v>
@@ -4623,12 +4656,12 @@
         <v>1</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
@@ -4644,12 +4677,12 @@
         <v>1</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
@@ -4665,12 +4698,12 @@
         <v>2</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
@@ -4686,12 +4719,12 @@
         <v>2</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
@@ -4707,12 +4740,12 @@
         <v>2</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
@@ -4731,7 +4764,7 @@
     </row>
     <row r="133" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
@@ -4740,19 +4773,19 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="7">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H133" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4768,12 +4801,12 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
@@ -4792,7 +4825,7 @@
     </row>
     <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
@@ -4811,7 +4844,7 @@
     </row>
     <row r="137" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
@@ -4827,12 +4860,12 @@
         <v>2</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
@@ -4851,7 +4884,7 @@
     </row>
     <row r="139" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
@@ -4867,12 +4900,12 @@
         <v>1</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
@@ -4880,18 +4913,20 @@
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="12"/>
+      <c r="G140" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H140" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
@@ -4905,12 +4940,12 @@
         <v>2</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -4926,12 +4961,12 @@
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
@@ -4947,12 +4982,12 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
@@ -4968,12 +5003,12 @@
         <v>1</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
@@ -4992,7 +5027,7 @@
     </row>
     <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
@@ -5009,7 +5044,7 @@
     </row>
     <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
@@ -5023,12 +5058,12 @@
         <v>2</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
@@ -5037,19 +5072,19 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H148" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
@@ -5063,12 +5098,12 @@
         <v>2</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
@@ -5082,16 +5117,16 @@
         <v>2</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
@@ -5101,12 +5136,12 @@
         <v>2</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
@@ -5125,7 +5160,7 @@
     </row>
     <row r="153" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
@@ -5142,7 +5177,7 @@
     </row>
     <row r="154" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
@@ -5158,12 +5193,12 @@
         <v>1</v>
       </c>
       <c r="I154" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
@@ -5179,12 +5214,12 @@
         <v>2</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
@@ -5201,7 +5236,7 @@
     </row>
     <row r="157" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
@@ -5215,12 +5250,12 @@
         <v>2</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
@@ -5239,7 +5274,7 @@
     </row>
     <row r="159" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
@@ -5255,12 +5290,12 @@
         <v>1</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
@@ -5276,12 +5311,12 @@
         <v>1</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
@@ -5296,19 +5331,110 @@
       </c>
       <c r="I161" s="5"/>
     </row>
+    <row r="162" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H162" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I163" s="5"/>
+    </row>
     <row r="164" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="5"/>
+      <c r="B164" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="14"/>
+      <c r="F164" s="19">
+        <v>43820</v>
+      </c>
+      <c r="G164" s="7">
+        <v>1</v>
+      </c>
+      <c r="H164" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19">
+        <v>43497</v>
+      </c>
+      <c r="G166" s="7">
+        <v>1</v>
+      </c>
+      <c r="H166" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G161">
+  <conditionalFormatting sqref="G5:G166">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -5365,16 +5491,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D161">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D166">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G161">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G166">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C161">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C166">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F161">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F166">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5401,7 +5527,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G161</xm:sqref>
+          <xm:sqref>G5:G166</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
@@ -5456,7 +5582,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H161</xm:sqref>
+          <xm:sqref>H5:H166</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="308">
   <si>
     <r>
       <rPr>
@@ -1045,6 +1045,21 @@
   </si>
   <si>
     <t>TestGoToGoal2Wheels(apRobot,robot) prend en compte le rayon de bracage du robot physique</t>
+  </si>
+  <si>
+    <t>Refaire un nouveau modele physique</t>
+  </si>
+  <si>
+    <t>reduire les jeux de transmission, reduire la taille du robot,supprimer les saillances,ameliorer la geometrie ,durcir le positionement des encoders</t>
+  </si>
+  <si>
+    <t>Doubler les batteries en //</t>
+  </si>
+  <si>
+    <t>remplace par TensorFlow</t>
+  </si>
+  <si>
+    <t>Utiliser l usage d'une bascule de Schmitt pour numeriser les encodeurs</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1560,7 @@
         <xdr:cNvPr id="2" name="Title" descr="Liste de tâches" title="Titre de modèle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1641,7 @@
         <xdr:cNvPr id="3" name="To Do Year" descr="Contient l’année de la liste de tâches (2014, par exemple)" title="Année de la liste de tâches">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,8 +1695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I166" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I171" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I171">
     <filterColumn colId="2">
       <filters>
         <filter val="Différé"/>
@@ -1952,10 +1967,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N166"/>
+  <dimension ref="B1:N171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2032,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43504</v>
+        <v>43530</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2439,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2940,18 +2955,18 @@
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E46" s="9">
         <v>43449</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H46" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5"/>
     </row>
@@ -3795,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -3804,7 +3819,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
@@ -5337,16 +5354,16 @@
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H162" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>300</v>
@@ -5432,9 +5449,88 @@
         <v>301</v>
       </c>
     </row>
+    <row r="167" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I171" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G166">
+  <conditionalFormatting sqref="G5:G171">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -5491,16 +5587,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D166">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D171">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G166">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G171">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C166">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C171">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F166">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F171">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5527,7 +5623,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G166</xm:sqref>
+          <xm:sqref>G5:G171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
@@ -5582,7 +5678,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H166</xm:sqref>
+          <xm:sqref>H5:H171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">

--- a/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
+++ b/ProjectDocumention/PlanDeConvergenceIntegration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="319">
   <si>
     <r>
       <rPr>
@@ -616,9 +616,6 @@
     <t>dans Octave traduire les coordonnees du robot sous forme de matrice (x,y,theta)</t>
   </si>
   <si>
-    <t>Ameliorer la detection d obstacle pour eviter les contacts</t>
-  </si>
-  <si>
     <t>En cas de code retour move negatif augmenter le sigma du move particules</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>Developper fonction octave pilotage direct du robot</t>
   </si>
   <si>
-    <t>necessite 15k ohm pullup resistor - detecte a 15cm</t>
-  </si>
-  <si>
     <t>Tester capteur de choc ST053</t>
   </si>
   <si>
@@ -944,9 +938,6 @@
   <si>
     <t>ne fonctionne plus en marche arriere et de remonte plus end move apres plusieurs retry
 marche arriere ok - endmove a tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>eviter les A/R
@@ -993,9 +984,6 @@
     <t>Revoir ecriture odometrie robot suivant modele calcul Mooc mobilerobots</t>
   </si>
   <si>
-    <t>cf: C:\Users\jean\Documents\MoocMobileRobots\Glue_lecture_2_slides  slide12</t>
-  </si>
-  <si>
     <t>Arrondir les angles de la planche du robot</t>
   </si>
   <si>
@@ -1060,6 +1048,52 @@
   </si>
   <si>
     <t>Utiliser l usage d'une bascule de Schmitt pour numeriser les encodeurs</t>
+  </si>
+  <si>
+    <t>Ajouter des IR sensors pour detecter les obstacles tres proches</t>
+  </si>
+  <si>
+    <t>6 sensors - detection a environ 10cm - intergation a valider</t>
+  </si>
+  <si>
+    <t>Utiliser  java_matrix_autoconversion (1) pour echanger array java et matrice octave</t>
+  </si>
+  <si>
+    <t>re-ecrire les fonctions au fil de l'eau  - commence pour liste actions et codes retour</t>
+  </si>
+  <si>
+    <t>Developper une fonction arret propre Octave Java TensorFlow</t>
+  </si>
+  <si>
+    <t>cf: C:\Users\jean\Documents\MoocMobileRobots\Glue_lecture_2_slides  slide12
+apres tunning encoder odometrie satisfaisante</t>
+  </si>
+  <si>
+    <t>priorite detection IR des obstacles</t>
+  </si>
+  <si>
+    <t>Ameliorer la detection d obstacle Echo pour eviter les contacts</t>
+  </si>
+  <si>
+    <t>completee par IR</t>
+  </si>
+  <si>
+    <t>via IR dectection</t>
+  </si>
+  <si>
+    <t>complete par IR detection</t>
+  </si>
+  <si>
+    <t>necessite 15k ohm pullup resistor - detecte a 15cm Choix IR fait sur sensor IR-01</t>
+  </si>
+  <si>
+    <t>a utiliser lors des modif au fil de l'eau</t>
+  </si>
+  <si>
+    <t>ApStopRobot</t>
+  </si>
+  <si>
+    <t>fait pour les micro controleurs puis les moteurs &gt; gros gain autonomie fiabilite</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I171" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Liste_de_tâches" displayName="Liste_de_tâches" ref="B4:I172" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I172">
     <filterColumn colId="2">
       <filters>
         <filter val="Différé"/>
@@ -1967,10 +2001,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N171"/>
+  <dimension ref="B1:N172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2066,7 @@
       </c>
       <c r="F5" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>43530</v>
+        <v>43576</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -2159,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2531,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2785,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2862,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2917,7 +2951,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3127,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -3733,7 +3767,9 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="81" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
@@ -3755,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,18 +3835,18 @@
         <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -3820,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,31 +3877,33 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H86" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I86" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="87" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
@@ -3882,7 +3920,7 @@
     </row>
     <row r="88" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
@@ -3900,12 +3938,12 @@
         <v>1</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
@@ -3919,12 +3957,12 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -3943,7 +3981,7 @@
     </row>
     <row r="91" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
@@ -3960,7 +3998,7 @@
     </row>
     <row r="92" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -3979,7 +4017,7 @@
     </row>
     <row r="93" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -3998,7 +4036,7 @@
     </row>
     <row r="94" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
@@ -4014,12 +4052,12 @@
         <v>1</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
@@ -4035,12 +4073,12 @@
         <v>1</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
@@ -4057,7 +4095,7 @@
     </row>
     <row r="97" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
@@ -4076,16 +4114,16 @@
     </row>
     <row r="98" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H98" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
@@ -4095,7 +4133,7 @@
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -4111,12 +4149,12 @@
         <v>2</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
@@ -4130,12 +4168,12 @@
         <v>2</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
@@ -4151,12 +4189,12 @@
         <v>1</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -4172,12 +4210,12 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
@@ -4193,12 +4231,12 @@
         <v>1</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
@@ -4217,28 +4255,28 @@
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H105" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
@@ -4252,12 +4290,12 @@
         <v>2</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -4273,12 +4311,12 @@
         <v>2</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
@@ -4294,12 +4332,12 @@
         <v>1</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
@@ -4318,7 +4356,7 @@
     </row>
     <row r="110" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
@@ -4334,12 +4372,12 @@
         <v>1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
@@ -4355,12 +4393,12 @@
         <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
@@ -4376,12 +4414,12 @@
         <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
@@ -4398,7 +4436,7 @@
     </row>
     <row r="114" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
@@ -4414,12 +4452,12 @@
         <v>1</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
@@ -4435,12 +4473,12 @@
         <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -4459,7 +4497,7 @@
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
@@ -4477,35 +4515,37 @@
         <v>1</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H118" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I118" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4516,11 +4556,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I119" s="5"/>
+      <c r="I119" s="5" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="120" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
@@ -4539,7 +4581,7 @@
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
@@ -4556,7 +4598,7 @@
     </row>
     <row r="122" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
@@ -4572,12 +4614,12 @@
         <v>1</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
@@ -4591,12 +4633,12 @@
         <v>2</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
@@ -4615,7 +4657,7 @@
     </row>
     <row r="125" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
@@ -4631,12 +4673,12 @@
         <v>1</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
@@ -4655,7 +4697,7 @@
     </row>
     <row r="127" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>15</v>
@@ -4673,12 +4715,12 @@
         <v>1</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
@@ -4694,33 +4736,33 @@
         <v>1</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H129" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
@@ -4736,12 +4778,12 @@
         <v>2</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
@@ -4757,12 +4799,12 @@
         <v>2</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
@@ -4781,7 +4823,7 @@
     </row>
     <row r="133" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
@@ -4790,19 +4832,19 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H133" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
@@ -4818,12 +4860,12 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
@@ -4842,7 +4884,7 @@
     </row>
     <row r="136" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
@@ -4861,7 +4903,7 @@
     </row>
     <row r="137" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
@@ -4877,12 +4919,12 @@
         <v>2</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
@@ -4901,7 +4943,7 @@
     </row>
     <row r="139" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
@@ -4917,12 +4959,12 @@
         <v>1</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
@@ -4938,16 +4980,16 @@
         <v>2</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
@@ -4957,12 +4999,12 @@
         <v>2</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -4978,12 +5020,12 @@
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
@@ -4999,12 +5041,12 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
@@ -5020,12 +5062,12 @@
         <v>1</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
@@ -5044,7 +5086,7 @@
     </row>
     <row r="146" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
@@ -5061,7 +5103,7 @@
     </row>
     <row r="147" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
@@ -5075,33 +5117,33 @@
         <v>2</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
-      <c r="G148" s="7" t="s">
-        <v>271</v>
+      <c r="G148" s="7">
+        <v>1</v>
       </c>
       <c r="H148" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
@@ -5115,12 +5157,12 @@
         <v>2</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
@@ -5134,16 +5176,16 @@
         <v>2</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
@@ -5153,12 +5195,12 @@
         <v>2</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
@@ -5177,15 +5219,17 @@
     </row>
     <row r="153" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
-      <c r="G153" s="12"/>
+      <c r="G153" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H153" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -5194,7 +5238,7 @@
     </row>
     <row r="154" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
@@ -5210,12 +5254,12 @@
         <v>1</v>
       </c>
       <c r="I154" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
@@ -5231,33 +5275,37 @@
         <v>2</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
-      <c r="G156" s="7"/>
+      <c r="G156" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H156" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I156" s="5"/>
+      <c r="I156" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="157" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
@@ -5266,13 +5314,13 @@
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I157" s="5" t="s">
-        <v>285</v>
+      <c r="I157" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
@@ -5291,7 +5339,7 @@
     </row>
     <row r="159" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
@@ -5307,12 +5355,12 @@
         <v>1</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
@@ -5328,12 +5376,12 @@
         <v>1</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
@@ -5350,7 +5398,7 @@
     </row>
     <row r="162" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
@@ -5366,20 +5414,22 @@
         <v>1</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
-      <c r="G163" s="12"/>
+      <c r="G163" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H163" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
@@ -5388,7 +5438,7 @@
     </row>
     <row r="164" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
@@ -5406,16 +5456,16 @@
         <v>1</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
@@ -5428,7 +5478,7 @@
     </row>
     <row r="166" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
@@ -5446,12 +5496,12 @@
         <v>1</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
@@ -5465,29 +5515,33 @@
         <v>2</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
-      <c r="G168" s="12"/>
+      <c r="G168" s="7">
+        <v>1</v>
+      </c>
       <c r="H168" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
-        <v>2</v>
-      </c>
-      <c r="I168" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="169" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
@@ -5503,34 +5557,71 @@
       <c r="I169" s="5"/>
     </row>
     <row r="170" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="5"/>
+      <c r="B170" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
-      <c r="G170" s="12"/>
+      <c r="G170" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H170" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I170" s="5"/>
+      <c r="I170" s="5" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="171" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
+      <c r="B171" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E171" s="19"/>
       <c r="F171" s="19"/>
-      <c r="G171" s="12"/>
+      <c r="G171" s="7">
+        <v>0.25</v>
+      </c>
       <c r="H171" s="13">
         <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
         <v>2</v>
       </c>
-      <c r="I171" s="5"/>
+      <c r="I171" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="7">
+        <v>1</v>
+      </c>
+      <c r="H172" s="13">
+        <f ca="1">IF(AND(Liste_de_tâches[[#This Row],[État ]]="Terminée",Liste_de_tâches[[#This Row],[% achevé]]=1),1,IF(ISBLANK(Liste_de_tâches[[#This Row],[Échéance ]]),2,IF(AND(Liste_de_tâches[[#This Row],[État ]]&lt;&gt;"Terminée",TODAY()&gt;Liste_de_tâches[[#This Row],[Échéance ]]),3,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G171">
+  <conditionalFormatting sqref="G5:G172">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
@@ -5587,16 +5678,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D171">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly you need to select a choice from the drop down list. But you can still use what you entered by clicking Yes." sqref="B21 D5:D172">
       <formula1>"Non commencée,En cours de réalisation, Différé, Terminée,Abandonnée"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G171">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G172">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C171">
+    <dataValidation type="list" allowBlank="1" errorTitle="Whoops" sqref="C5:C172">
       <formula1>"Basse, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F171">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="For this template to work correctly, your Due Date needs to be greater than or equal to the Start Date." sqref="F5:F172">
       <formula1>F5&gt;=E5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5623,7 +5714,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G171</xm:sqref>
+          <xm:sqref>G5:G172</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{252EEE29-AC71-49F3-8FC5-BE692677DD6B}">
@@ -5678,7 +5769,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H171</xm:sqref>
+          <xm:sqref>H5:H172</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{3A939870-4832-4AF2-9B3A-F39899E6143D}">
